--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail0 Features.xlsx
@@ -6713,7 +6713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6724,29 +6724,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6767,115 +6765,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6892,72 +6880,66 @@
         <v>1.687669179055739e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.744528055697696</v>
+        <v>1.10459889475491e-05</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.59766565753377</v>
+        <v>2.271237045349759e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.10459889475491e-05</v>
+        <v>-0.1064343871070521</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.271237045349759e-06</v>
+        <v>0.3165450493557886</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1064343871070521</v>
+        <v>0.1112584237998553</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3165450493557886</v>
+        <v>1.700124233599664</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1112584237998553</v>
+        <v>1.418180819037379</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.646653951035345</v>
+        <v>3.575138696707993</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.418180819037379</v>
+        <v>4.019629627298393e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.575138696707993</v>
+        <v>35583347.40964582</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.019629627298393e-15</v>
+        <v>3.07983772988359e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>35583347.40964582</v>
+        <v>5.089552987247624</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.07983772988359e-06</v>
+        <v>0.0002412328012505938</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.089552987247624</v>
+        <v>14.01003876630011</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002412328012505938</v>
+        <v>0.963641401348666</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14.01003876630011</v>
+        <v>0.04734946038783199</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.963641401348666</v>
+        <v>2.038694962378155</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.04734946038783199</v>
+        <v>0.948986660980379</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.038694962378155</v>
+        <v>1.654070504553551</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.948986660980379</v>
+        <v>23</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.654070504553551</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1593281880526301</v>
       </c>
     </row>
@@ -6972,72 +6954,66 @@
         <v>1.231598604893689e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.701323921328523</v>
+        <v>8.052863347039679e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.29914639994774</v>
+        <v>2.118783880867272e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.052863347039679e-06</v>
+        <v>-0.1041396685237048</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.118783880867272e-06</v>
+        <v>0.3149140409076849</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1041396685237048</v>
+        <v>0.1097401513959872</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3149140409076849</v>
+        <v>1.6353204879494</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1097401513959872</v>
+        <v>1.451077182407774</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.569808511010867</v>
+        <v>4.525514349840776</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.451077182407774</v>
+        <v>4.633309279752158e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.525514349840776</v>
+        <v>32665346.69161402</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.633309279752158e-15</v>
+        <v>3.26773970051175e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>32665346.69161402</v>
+        <v>4.943856252670037</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.26773970051175e-06</v>
+        <v>0.0002334833887582664</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4.943856252670037</v>
+        <v>11.54331283005659</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002334833887582664</v>
+        <v>1.225186849438026</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.54331283005659</v>
+        <v>0.03111121118419078</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.225186849438026</v>
+        <v>2.400745766934095</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03111121118419078</v>
+        <v>0.9486651454964373</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.400745766934095</v>
+        <v>1.87265643671139</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9486651454964373</v>
+        <v>19</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.87265643671139</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1370203720745344</v>
       </c>
     </row>
@@ -7052,72 +7028,66 @@
         <v>9.023022638548127e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.628936066675883</v>
+        <v>5.876306496362096e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.78789754911468</v>
+        <v>2.010422148830153e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.876306496362096e-06</v>
+        <v>-0.1005160274073271</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.010422148830153e-06</v>
+        <v>0.3113357252778673</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1005160274073271</v>
+        <v>0.1067626499670324</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3113357252778673</v>
+        <v>1.568828182557847</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1067626499670324</v>
+        <v>1.421284258236871</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.498869329427583</v>
+        <v>4.868595712690737</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.421284258236871</v>
+        <v>8.122924913868651e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.868595712690737</v>
+        <v>19218690.11214345</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.122924913868651e-15</v>
+        <v>5.368110655699164e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>19218690.11214345</v>
+        <v>3.000267703449844</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.368110655699164e-06</v>
+        <v>0.0002333128842094148</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.000267703449844</v>
+        <v>9.463858701364247</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002333128842094148</v>
+        <v>1.717361617418067</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.463858701364247</v>
+        <v>0.02089658016981297</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.717361617418067</v>
+        <v>2.69628223519629</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02089658016981297</v>
+        <v>0.946498245155644</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.69628223519629</v>
+        <v>1.857898709751206</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.946498245155644</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.857898709751206</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1254723720715011</v>
       </c>
     </row>
@@ -7132,72 +7102,66 @@
         <v>6.663172177745608e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.513082156853232</v>
+        <v>4.300674779240583e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12.99255907375306</v>
+        <v>1.934149817286012e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.300674779240583e-06</v>
+        <v>-0.09534285099249824</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.934149817286012e-06</v>
+        <v>0.3050066387324518</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09534285099249824</v>
+        <v>0.1018610842736341</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3050066387324518</v>
+        <v>1.546006271054194</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1018610842736341</v>
+        <v>1.357038392951268</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.471778125160135</v>
+        <v>4.301427763588739</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.357038392951268</v>
+        <v>1.422924230396325e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.301427763588739</v>
+        <v>11159342.61763579</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.422924230396325e-14</v>
+        <v>9.058061480912145e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>11159342.61763579</v>
+        <v>1.771980743979906</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.058061480912145e-06</v>
+        <v>0.0002071719780495865</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.771980743979906</v>
+        <v>9.720771944013061</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002071719780495865</v>
+        <v>1.52515929116363</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.720771944013061</v>
+        <v>0.01957638607968176</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.52515929116363</v>
+        <v>2.721840871257634</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01957638607968176</v>
+        <v>0.9438814527954372</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.721840871257634</v>
+        <v>1.857994621617725</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9438814527954372</v>
+        <v>19</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.857994621617725</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1265616706484411</v>
       </c>
     </row>
@@ -7212,72 +7176,66 @@
         <v>4.988140650075875e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.334305275404141</v>
+        <v>3.170083795162425e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>11.85302713104316</v>
+        <v>1.880896058111066e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.170083795162425e-06</v>
+        <v>-0.08869158064606836</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.880896058111066e-06</v>
+        <v>0.2962022542468027</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08869158064606836</v>
+        <v>0.09536804599062226</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2962022542468027</v>
+        <v>1.511738114754415</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.09536804599062226</v>
+        <v>1.369778342590871</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.439005757194123</v>
+        <v>3.699330046418072</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.369778342590871</v>
+        <v>1.923804263901411e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.699330046418072</v>
+        <v>8446925.786614971</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.923804263901411e-14</v>
+        <v>1.168903919918822e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8446925.786614971</v>
+        <v>1.37264502411258</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.168903919918822e-05</v>
+        <v>0.0001949160623850338</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1.37264502411258</v>
+        <v>11.04697230682368</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001949160623850338</v>
+        <v>1.164165965272521</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.04697230682368</v>
+        <v>0.02378669806684163</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.164165965272521</v>
+        <v>2.559262145822724</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02378669806684163</v>
+        <v>0.942210260314023</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.559262145822724</v>
+        <v>1.885127475164438</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.942210260314023</v>
+        <v>19</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.885127475164438</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1304705874446438</v>
       </c>
     </row>
@@ -7292,72 +7250,66 @@
         <v>3.808935913553458e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.061637114099385</v>
+        <v>2.366747872766172e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>10.24130009827752</v>
+        <v>1.843850246348526e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.366747872766172e-06</v>
+        <v>-0.0807307280131869</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.843850246348526e-06</v>
+        <v>0.2870383388178906</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0807307280131869</v>
+        <v>0.08870631210511587</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2870383388178906</v>
+        <v>1.478612110830759</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.08870631210511587</v>
+        <v>1.371131474719969</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.403552952794482</v>
+        <v>3.540942489569945</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.371131474719969</v>
+        <v>2.099758250231561e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.540942489569945</v>
+        <v>7725656.330610184</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.099758250231561e-14</v>
+        <v>1.249016220180408e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7725656.330610184</v>
+        <v>1.253256790312177</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.249016220180408e-05</v>
+        <v>0.0002063077913380482</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1.253256790312177</v>
+        <v>12.41365700500063</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002063077913380482</v>
+        <v>1.033896362603988</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.41365700500063</v>
+        <v>0.03179179962952719</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.033896362603988</v>
+        <v>2.25074939407031</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.03179179962952719</v>
+        <v>0.9397552097224418</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.25074939407031</v>
+        <v>1.879070597473145</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9397552097224418</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.879070597473145</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1333436744541865</v>
       </c>
     </row>
@@ -7372,72 +7324,66 @@
         <v>2.986661479614041e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.659629174475818</v>
+        <v>1.793693421629457e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7.94186317734108</v>
+        <v>1.818131693643909e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.793693421629457e-06</v>
+        <v>-0.07132733793920572</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.818131693643909e-06</v>
+        <v>0.2783297176118929</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.07132733793920572</v>
+        <v>0.08238318575092315</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2783297176118929</v>
+        <v>1.478663713781729</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.08238318575092315</v>
+        <v>1.360378775483906</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.402599909055684</v>
+        <v>3.490657012733523</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.360378775483906</v>
+        <v>2.160691121077631e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.490657012733523</v>
+        <v>7556320.148095444</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.160691121077631e-14</v>
+        <v>1.276404737387685e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7556320.148095444</v>
+        <v>1.233710858433546</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.276404737387685e-05</v>
+        <v>0.0002123451885906252</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.233710858433546</v>
+        <v>12.24836033445637</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002123451885906252</v>
+        <v>1.058294453312083</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.24836033445637</v>
+        <v>0.03185652014408875</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.058294453312083</v>
+        <v>2.243213325591523</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03185652014408875</v>
+        <v>0.9403500132470083</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.243213325591523</v>
+        <v>1.891274520226376</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9403500132470083</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.891274520226376</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1298416747578596</v>
       </c>
     </row>
@@ -7452,72 +7398,66 @@
         <v>2.427965943682297e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.143490280829467</v>
+        <v>1.37259902309169e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>5.025421463364665</v>
+        <v>1.800420644035318e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.37259902309169e-06</v>
+        <v>-0.05986028223399445</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.800420644035318e-06</v>
+        <v>0.2660702645972244</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05986028223399445</v>
+        <v>0.07423220192865082</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2660702645972244</v>
+        <v>1.471794370950349</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07423220192865082</v>
+        <v>1.352905455030769</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.393669433275561</v>
+        <v>3.481657286907088</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.352905455030769</v>
+        <v>2.171875886581028e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.481657286907088</v>
+        <v>7565638.956842099</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.171875886581028e-14</v>
+        <v>1.275903690261524e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7565638.956842099</v>
+        <v>1.243157711018362</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.275903690261524e-05</v>
+        <v>0.0002099227569099071</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.243157711018362</v>
+        <v>10.4349005726636</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002099227569099071</v>
+        <v>1.273554835230012</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.4349005726636</v>
+        <v>0.02285789071195434</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.273554835230012</v>
+        <v>2.509157468606841</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02285789071195434</v>
+        <v>0.9404759299146161</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.509157468606841</v>
+        <v>1.91066498137146</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9404759299146161</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.91066498137146</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.123533997705913</v>
       </c>
     </row>
@@ -7532,72 +7472,66 @@
         <v>2.069276089675248e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.635279651987067</v>
+        <v>1.059129572863527e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.265697882652381</v>
+        <v>1.788488445795118e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.059129572863527e-06</v>
+        <v>-0.04656650497567816</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.788488445795118e-06</v>
+        <v>0.2485321042530304</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04656650497567816</v>
+        <v>0.06382605814141627</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2485321042530304</v>
+        <v>1.47317522121361</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06382605814141627</v>
+        <v>1.348001596272082</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.391723708519145</v>
+        <v>3.496130214945565</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.348001596272082</v>
+        <v>2.153931279792194e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.496130214945565</v>
+        <v>7701431.669970866</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.153931279792194e-14</v>
+        <v>1.258700966873969e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7701431.669970866</v>
+        <v>1.277540792622285</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.258700966873969e-05</v>
+        <v>0.0002110965837281249</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1.277540792622285</v>
+        <v>9.327084195593921</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002110965837281249</v>
+        <v>1.551958593212279</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.327084195593921</v>
+        <v>0.01836424166694519</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.551958593212279</v>
+        <v>2.66267402714856</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01836424166694519</v>
+        <v>0.9422668075209188</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.66267402714856</v>
+        <v>1.885296586194793</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9422668075209188</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.885296586194793</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1226934467231421</v>
       </c>
     </row>
@@ -7612,72 +7546,66 @@
         <v>1.856594868085316e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.278649637418288</v>
+        <v>8.250656910235428e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.4872050890143913</v>
+        <v>1.780735697860199e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.250656910235428e-07</v>
+        <v>-0.03279946993444125</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.780735697860199e-06</v>
+        <v>0.2276863937346522</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03279946993444125</v>
+        <v>0.05283900078478694</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2276863937346522</v>
+        <v>1.472079536807368</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05283900078478694</v>
+        <v>1.340527489694414</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.392439398728705</v>
+        <v>3.52495746511904</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.340527489694414</v>
+        <v>2.118845454602363e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.52495746511904</v>
+        <v>7873657.085563266</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.118845454602363e-14</v>
+        <v>1.231526126850431e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>7873657.085563266</v>
+        <v>1.313567134733757</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.231526126850431e-05</v>
+        <v>0.0001951158026647658</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1.313567134733757</v>
+        <v>10.24612832650967</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001951158026647658</v>
+        <v>1.275939442647652</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.24612832650967</v>
+        <v>0.02048387073626986</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.275939442647652</v>
+        <v>2.624632658323605</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02048387073626986</v>
+        <v>0.9416152950203994</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.624632658323605</v>
+        <v>1.856005253806278</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9416152950203994</v>
+        <v>6</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.856005253806278</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1288240439084006</v>
       </c>
     </row>
@@ -7692,72 +7620,66 @@
         <v>1.743546528247194e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.113372327145555</v>
+        <v>6.481402717235928e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2204019117318494</v>
+        <v>1.776020052587855e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.481402717235928e-07</v>
+        <v>-0.0200690554532541</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.776020052587855e-06</v>
+        <v>0.2062817759325981</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0200690554532541</v>
+        <v>0.04290322432982798</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2062817759325981</v>
+        <v>1.482612215127617</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04290322432982798</v>
+        <v>1.330755927582544</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.401243626179007</v>
+        <v>3.568443056235999</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.330755927582544</v>
+        <v>2.067518960565839e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.568443056235999</v>
+        <v>8254927.889964767</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.067518960565839e-14</v>
+        <v>1.193150440466577e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>8254927.889964767</v>
+        <v>1.408886698093213</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.193150440466577e-05</v>
+        <v>0.0002034047535941408</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.408886698093213</v>
+        <v>12.24508725728013</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002034047535941408</v>
+        <v>1.047768047092544</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.24508725728013</v>
+        <v>0.03049894850245386</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.047768047092544</v>
+        <v>2.314864416229298</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03049894850245386</v>
+        <v>0.9428545018827386</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.314864416229298</v>
+        <v>1.881639472997039</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9428545018827386</v>
+        <v>14</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.881639472997039</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1332605943061816</v>
       </c>
     </row>
@@ -7772,72 +7694,66 @@
         <v>1.693242215527168e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.072246204263194</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.3453028457224128</v>
+        <v>1.773531700805744e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>-0.00943115347230873</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.773531700805744e-06</v>
+        <v>0.1869878540637477</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.00943115347230873</v>
+        <v>0.03502052519625035</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1869878540637477</v>
+        <v>1.502413659114411</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03502052519625035</v>
+        <v>1.322850660114083</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.422761511710489</v>
+        <v>3.652353035496284</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.322850660114083</v>
+        <v>1.973610937811483e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.652353035496284</v>
+        <v>8930260.874287121</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.973610937811483e-14</v>
+        <v>1.126938838174236e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>8930260.874287121</v>
+        <v>1.573946024862255</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.126938838174236e-05</v>
+        <v>0.0002149994550770362</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1.573946024862255</v>
+        <v>12.57809768203323</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002149994550770362</v>
+        <v>1.034806230858197</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.57809768203323</v>
+        <v>0.03401475016776827</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.034806230858197</v>
+        <v>2.198031111132387</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.03401475016776827</v>
+        <v>0.9439360178710364</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.198031111132387</v>
+        <v>1.890013873029214</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9439360178710364</v>
+        <v>39</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.890013873029214</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1292762083187649</v>
       </c>
     </row>
@@ -7852,72 +7768,66 @@
         <v>1.678693435519296e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.072165536449058</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3289836433628786</v>
+        <v>1.772664903953715e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>-0.001385801880922507</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.772664903953715e-06</v>
+        <v>0.1717451320123434</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.001385801880922507</v>
+        <v>0.02947802759378203</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1717451320123434</v>
+        <v>1.512047858926447</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02947802759378203</v>
+        <v>1.306015366818172</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.433673214953791</v>
+        <v>3.82429940284347</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.306015366818172</v>
+        <v>1.800127520067702e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.82429940284347</v>
+        <v>9789189.299722107</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.800127520067702e-14</v>
+        <v>1.03085145743137e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>9789189.299722107</v>
+        <v>1.725030288844422</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.03085145743137e-05</v>
+        <v>0.0002145730008368568</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1.725030288844422</v>
+        <v>11.16551508069804</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002145730008368568</v>
+        <v>1.175592945868832</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.16551508069804</v>
+        <v>0.02675054286661199</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.175592945868832</v>
+        <v>2.385999724728245</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02675054286661199</v>
+        <v>0.9449640891930364</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.385999724728245</v>
+        <v>1.864413844243141</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9449640891930364</v>
+        <v>39</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.864413844243141</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1226280669963141</v>
       </c>
     </row>
@@ -7932,72 +7842,66 @@
         <v>1.681914389905832e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.068044765266959</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3453704790959682</v>
+        <v>1.772942051053889e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.004246311573701862</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.772942051053889e-06</v>
+        <v>0.1608961819910843</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.004246311573701862</v>
+        <v>0.02589311187713832</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1608961819910843</v>
+        <v>1.520527822651501</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02589311187713832</v>
+        <v>1.297178908479818</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.440330758176226</v>
+        <v>4.123974271306133</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.297178908479818</v>
+        <v>1.548014942410882e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.123974271306133</v>
+        <v>11435631.93128591</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.548014942410882e-14</v>
+        <v>8.850350367673674e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>11435631.93128591</v>
+        <v>2.024396071038496</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.850350367673674e-06</v>
+        <v>0.0002192847883804849</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.024396071038496</v>
+        <v>9.504062091200883</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002192847883804849</v>
+        <v>1.502635402072798</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.504062091200883</v>
+        <v>0.01980738011104402</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.502635402072798</v>
+        <v>2.553876379764128</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01980738011104402</v>
+        <v>0.9468959591810194</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.553876379764128</v>
+        <v>1.871394793355889</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9468959591810194</v>
+        <v>50</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.871394793355889</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1207054933721852</v>
       </c>
     </row>
@@ -8012,72 +7916,66 @@
         <v>1.69229036953764e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.048162224955473</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4114210415081883</v>
+        <v>1.774004974563128e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.008020016819552186</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.774004974563128e-06</v>
+        <v>0.1536618517409277</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.008020016819552186</v>
+        <v>0.0236685974494675</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1536618517409277</v>
+        <v>1.535215600434517</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0236685974494675</v>
+        <v>1.277628319769605</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.456456847733894</v>
+        <v>4.752687890108538</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.277628319769605</v>
+        <v>1.162609989260866e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.752687890108538</v>
+        <v>15188477.72473445</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.162609989260866e-14</v>
+        <v>6.689489998825467e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>15188477.72473445</v>
+        <v>2.682023305356084</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>6.689489998825467e-06</v>
+        <v>0.0002062948374023255</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.682023305356084</v>
+        <v>9.255929621167736</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002062948374023255</v>
+        <v>1.52385284559028</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.255929621167736</v>
+        <v>0.01767373940798809</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.52385284559028</v>
+        <v>2.654646852415859</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01767373940798809</v>
+        <v>0.9482890271432327</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.654646852415859</v>
+        <v>1.877750843424522</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9482890271432327</v>
+        <v>50</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.877750843424522</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1289090871824161</v>
       </c>
     </row>
@@ -8092,72 +7990,66 @@
         <v>1.704157120722007e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.015136928348641</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5027763339326752</v>
+        <v>1.775591936492225e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01041508099784204</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.775591936492225e-06</v>
+        <v>0.1491303284615969</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.01041508099784204</v>
+        <v>0.0223436243548885</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1491303284615969</v>
+        <v>1.601698164926103</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0223436243548885</v>
+        <v>1.373534954420693</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.529279964450886</v>
+        <v>3.441304299274893</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.373534954420693</v>
+        <v>8.923130677665552e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.441304299274893</v>
+        <v>18315028.18020417</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.923130677665552e-15</v>
+        <v>5.759226992575939e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>18315028.18020417</v>
+        <v>2.993177249917195</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.759226992575939e-06</v>
+        <v>0.0002005579585637285</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.993177249917195</v>
+        <v>11.88179575417591</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002005579585637285</v>
+        <v>1.101375063220936</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.88179575417591</v>
+        <v>0.02831418502419104</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.101375063220936</v>
+        <v>2.460359254558031</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02831418502419104</v>
+        <v>0.9520152294627386</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.460359254558031</v>
+        <v>1.815370530376925</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9520152294627386</v>
+        <v>50</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.815370530376925</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1398499068310667</v>
       </c>
     </row>
@@ -8172,72 +8064,66 @@
         <v>1.714774396809895e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.9747476989157159</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.5975375765922952</v>
+        <v>1.777506645201751e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01179308980565042</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.777506645201751e-06</v>
+        <v>0.1464893643359944</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.01179308980565042</v>
+        <v>0.02159537283452989</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1464893643359944</v>
+        <v>1.650058751551483</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.02159537283452989</v>
+        <v>1.486968168228185</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.580543295674372</v>
+        <v>3.345476238526601</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.486968168228185</v>
+        <v>9.344404869677242e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.345476238526601</v>
+        <v>16750160.70915954</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.344404869677242e-15</v>
+        <v>6.428990173606678e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>16750160.70915954</v>
+        <v>2.62173989949384</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.428990173606678e-06</v>
+        <v>0.0002363183624077335</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>2.62173989949384</v>
+        <v>14.12308532985652</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002363183624077335</v>
+        <v>0.9659401734868968</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>14.12308532985652</v>
+        <v>0.04713642431520126</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.9659401734868968</v>
+        <v>2.066747553144106</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.04713642431520126</v>
+        <v>0.952504546300657</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.066747553144106</v>
+        <v>1.805127018283796</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.952504546300657</v>
+        <v>49</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.805127018283796</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1351814456288567</v>
       </c>
     </row>
@@ -8252,72 +8138,66 @@
         <v>1.723078915847201e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.9318470749072687</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6838688412340699</v>
+        <v>1.77960136367211e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01243497750928296</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.77960136367211e-06</v>
+        <v>0.1450979466897991</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01243497750928296</v>
+        <v>0.02120638794365925</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1450979466897991</v>
+        <v>1.711724210197404</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02120638794365925</v>
+        <v>1.42550531814053</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.649838979784602</v>
+        <v>3.468617307289627</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.42550531814053</v>
+        <v>8.824519322293273e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.468617307289627</v>
+        <v>16856331.12766174</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.824519322293273e-15</v>
+        <v>6.644220316930662e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>16856331.12766174</v>
+        <v>2.50736273163609</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.644220316930662e-06</v>
+        <v>0.0002584989429082597</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2.50736273163609</v>
+        <v>13.31523811386398</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002584989429082597</v>
+        <v>1.077154835465323</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.31523811386398</v>
+        <v>0.04583071640079113</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.077154835465323</v>
+        <v>2.114336237527671</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.04583071640079113</v>
+        <v>0.9531338259169083</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.114336237527671</v>
+        <v>1.765852039297736</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9531338259169083</v>
+        <v>49</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.765852039297736</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1267950567927492</v>
       </c>
     </row>
@@ -8332,72 +8212,66 @@
         <v>1.728917054637991e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8895919734690949</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7574007720712128</v>
+        <v>1.781763852888117e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01250296671428336</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.781763852888117e-06</v>
+        <v>0.1445149897650321</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.01250296671428336</v>
+        <v>0.02103992591169445</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1445149897650321</v>
+        <v>1.74940567595703</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02103992591169445</v>
+        <v>1.352522604268355</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.697583335713414</v>
+        <v>4.242826595851644</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.352522604268355</v>
+        <v>5.843741193672856e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.242826595851644</v>
+        <v>24705121.35213593</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>5.843741193672856e-15</v>
+        <v>4.66685928784237e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>24705121.35213593</v>
+        <v>3.5666866542273</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.66685928784237e-06</v>
+        <v>0.0002570107597134156</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.5666866542273</v>
+        <v>11.79625530876609</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002570107597134156</v>
+        <v>1.246385424862552</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.79625530876609</v>
+        <v>0.03576346853432547</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.246385424862552</v>
+        <v>2.228689519463962</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.03576346853432547</v>
+        <v>0.9536079790768871</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.228689519463962</v>
+        <v>1.725178065416343</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9536079790768871</v>
+        <v>49</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.725178065416343</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1381235468682755</v>
       </c>
     </row>
@@ -8412,72 +8286,66 @@
         <v>1.732548110577797e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.8498652938844301</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.817522870975516</v>
+        <v>1.783901736401023e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01210562586201813</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.783901736401023e-06</v>
+        <v>0.144430366476983</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01210562586201813</v>
+        <v>0.02100614347372749</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.144430366476983</v>
+        <v>1.807224897849215</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02100614347372749</v>
+        <v>1.437832511856245</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.772310198329391</v>
+        <v>4.488073399678836</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.437832511856245</v>
+        <v>2.51072594803432e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.488073399678836</v>
+        <v>56170255.35147423</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.51072594803432e-15</v>
+        <v>2.080065878201958e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>56170255.35147423</v>
+        <v>7.921585378377875</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.080065878201958e-06</v>
+        <v>0.000233529181171505</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>7.921585378377875</v>
+        <v>11.19377066483782</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.000233529181171505</v>
+        <v>1.276040570249222</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.19377066483782</v>
+        <v>0.02926132356167537</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.276040570249222</v>
+        <v>2.40986241103767</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02926132356167537</v>
+        <v>0.9581615802270921</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.40986241103767</v>
+        <v>1.683826035454676</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9581615802270921</v>
+        <v>49</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.683826035454676</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1937666465809579</v>
       </c>
     </row>
@@ -8492,72 +8360,66 @@
         <v>1.734476509566319e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.8137127666401587</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.8655278270399069</v>
+        <v>1.785933744404444e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01123430051272925</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.785933744404444e-06</v>
+        <v>0.1446365984105051</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.01123430051272925</v>
+        <v>0.02104560553205412</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1446365984105051</v>
+        <v>1.86163717031535</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02104560553205412</v>
+        <v>1.58237431946153</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.843972408035698</v>
+        <v>4.157083351815212</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.58237431946153</v>
+        <v>1.136311476777129e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.157083351815212</v>
+        <v>124225385.6919295</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.136311476777129e-15</v>
+        <v>9.549737096739856e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>124225385.6919295</v>
+        <v>17.53549786049579</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.549737096739856e-07</v>
+        <v>0.0002003443045177459</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>17.53549786049579</v>
+        <v>10.28751621788423</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002003443045177459</v>
+        <v>1.491831748434729</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.28751621788423</v>
+        <v>0.02120303676320678</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.491831748434729</v>
+        <v>2.857970124055222</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02120303676320678</v>
+        <v>0.9600443216492931</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.857970124055222</v>
+        <v>1.502517912760392</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9600443216492931</v>
+        <v>49</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.502517912760392</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3719965266090839</v>
       </c>
     </row>
@@ -8572,72 +8434,66 @@
         <v>1.73521453701002e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.7818801637431574</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9029552718629716</v>
+        <v>1.787782661600996e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.01007001335540083</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.787782661600996e-06</v>
+        <v>0.1449867115239288</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.01007001335540083</v>
+        <v>0.02112215813229382</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1449867115239288</v>
+        <v>1.864045910168591</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02112215813229382</v>
+        <v>1.655361300348282</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.852124611204448</v>
+        <v>5.097988979485399</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.655361300348282</v>
+        <v>5.071975861811149e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.097988979485399</v>
+        <v>280701160.546241</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.071975861811149e-16</v>
+        <v>4.227101281285466e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>280701160.546241</v>
+        <v>39.96369119266068</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.227101281285466e-07</v>
+        <v>0.0001566386300362169</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>39.96369119266068</v>
+        <v>8.895974802511075</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001566386300362169</v>
+        <v>2.199661785127895</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.895974802511075</v>
+        <v>0.01239612549778031</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>2.199661785127895</v>
+        <v>3.519701979801487</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01239612549778031</v>
+        <v>0.9592977094384972</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.519701979801487</v>
+        <v>1.502844561431455</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9592977094384972</v>
+        <v>56</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.502844561431455</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.7333289798809143</v>
       </c>
     </row>
@@ -8652,72 +8508,66 @@
         <v>1.734940145044146e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.7543215565528599</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.9311182686614412</v>
+        <v>1.78944530130611e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.009134729134589513</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.78944530130611e-06</v>
+        <v>0.1454190112227062</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.009134729134589513</v>
+        <v>0.02122956106139987</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1454190112227062</v>
+        <v>1.87892723349116</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02122956106139987</v>
+        <v>1.837716136922172</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.881112073166069</v>
+        <v>4.980208941205172</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.837716136922172</v>
+        <v>2.077023668777454e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.980208941205172</v>
+        <v>681827674.8355274</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.077023668777454e-16</v>
+        <v>1.740805798726497e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>681827674.8355274</v>
+        <v>96.55854110162232</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.740805798726497e-07</v>
+        <v>0.0001530624020156369</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>96.55854110162232</v>
+        <v>8.855644099289611</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001530624020156369</v>
+        <v>1.614733814853768</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.855644099289611</v>
+        <v>0.01200352587708602</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.614733814853768</v>
+        <v>3.354501837189474</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01200352587708602</v>
+        <v>0.9593509110761971</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.354501837189474</v>
+        <v>1.403693888766323</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9593509110761971</v>
+        <v>56</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.403693888766323</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.5963743619411288</v>
       </c>
     </row>
@@ -8732,72 +8582,66 @@
         <v>1.733613618301237e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.730493269091252</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.951145246159693</v>
+        <v>1.790969987456873e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.008454254384744869</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.790969987456873e-06</v>
+        <v>0.1458831611247122</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.008454254384744869</v>
+        <v>0.02135274297009972</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1458831611247122</v>
+        <v>1.891493064196019</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02135274297009972</v>
+        <v>2.173593210273768</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.896518237590415</v>
+        <v>3.724715747901039</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.173593210273768</v>
+        <v>1.388769221176391e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.724715747901039</v>
+        <v>1009744705.206598</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.388769221176391e-16</v>
+        <v>1.177322772902473e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1009744705.206598</v>
+        <v>141.5967391021834</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.177322772902473e-07</v>
+        <v>0.0001676875672150638</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>141.5967391021834</v>
+        <v>11.32212646050204</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001676875672150638</v>
+        <v>1.135437072817738</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.32212646050204</v>
+        <v>0.02149596106493157</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.135437072817738</v>
+        <v>2.955172601082613</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02149596106493157</v>
+        <v>0.9583613097073705</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.955172601082613</v>
+        <v>1.353410911335139</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9583613097073705</v>
+        <v>61</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.353410911335139</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.5008542108770513</v>
       </c>
     </row>
@@ -8812,72 +8656,66 @@
         <v>1.731314864487744e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.7100178363536594</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9642873066297866</v>
+        <v>1.792385500972995e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.007875637514335451</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.792385500972995e-06</v>
+        <v>0.146378174693296</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.007875637514335451</v>
+        <v>0.02148801425333167</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.146378174693296</v>
+        <v>1.898633704349707</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02148801425333167</v>
+        <v>2.47216844727402</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.906092407511227</v>
+        <v>3.874774612714091</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.47216844727402</v>
+        <v>1.283286016207746e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.874774612714091</v>
+        <v>1081840223.899044</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.283286016207746e-16</v>
+        <v>1.10067437588806e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1081840223.899044</v>
+        <v>150.193006762336</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.10067437588806e-07</v>
+        <v>0.0001726324807411725</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>150.193006762336</v>
+        <v>11.97511886162606</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001726324807411725</v>
+        <v>1.063215898325793</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.97511886162606</v>
+        <v>0.02475609707511161</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.063215898325793</v>
+        <v>2.693765648683956</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02475609707511161</v>
+        <v>0.9588351314730428</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.693765648683956</v>
+        <v>1.337719061812433</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9588351314730428</v>
+        <v>56</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.337719061812433</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.4700822123384834</v>
       </c>
     </row>
@@ -8892,72 +8730,66 @@
         <v>1.728219652357719e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.6926571218518272</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9718310920254751</v>
+        <v>1.793700959072826e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.007314698523826915</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.793700959072826e-06</v>
+        <v>0.146915757833853</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.007314698523826915</v>
+        <v>0.02163724618784445</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.146915757833853</v>
+        <v>1.89201903660239</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02163724618784445</v>
+        <v>2.517226837514336</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.902606341365259</v>
+        <v>3.863877013615687</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.517226837514336</v>
+        <v>1.290534931023215e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.863877013615687</v>
+        <v>1017504988.222588</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.290534931023215e-16</v>
+        <v>1.169911001488515e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1017504988.222588</v>
+        <v>133.6111980226395</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.169911001488515e-07</v>
+        <v>0.0001598021153588835</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>133.6111980226395</v>
+        <v>10.40802863183253</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001598021153588835</v>
+        <v>1.134078517270623</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.40802863183253</v>
+        <v>0.01731089333877581</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.134078517270623</v>
+        <v>2.882589587660799</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01731089333877581</v>
+        <v>0.9580294027901268</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.882589587660799</v>
+        <v>1.36174168768939</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9580294027901268</v>
+        <v>48</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.36174168768939</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.4331875998855992</v>
       </c>
     </row>
@@ -8972,72 +8804,66 @@
         <v>1.724528256486243e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.6781768564252559</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.9749947166603925</v>
+        <v>1.79491890454227e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.006787008416448811</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.79491890454227e-06</v>
+        <v>0.1474686142572247</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.006787008416448811</v>
+        <v>0.02179262619218234</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1474686142572247</v>
+        <v>1.888039658719029</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02179262619218234</v>
+        <v>2.187259171355712</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.896358527033793</v>
+        <v>3.933271394150486</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.187259171355712</v>
+        <v>1.24539903787221e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.933271394150486</v>
+        <v>1032027854.738136</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.24539903787221e-16</v>
+        <v>1.14739758858575e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1032027854.738136</v>
+        <v>132.6451466582151</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.14739758858575e-07</v>
+        <v>0.0001578806495449098</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>132.6451466582151</v>
+        <v>8.381168588673347</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001578806495449098</v>
+        <v>1.501132621757983</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.381168588673347</v>
+        <v>0.01109016628025357</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.501132621757983</v>
+        <v>3.110084772649276</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01109016628025357</v>
+        <v>0.957677429018562</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.110084772649276</v>
+        <v>1.332502716708328</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.957677429018562</v>
+        <v>23</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.332502716708328</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.4013673171289526</v>
       </c>
     </row>
@@ -9052,72 +8878,66 @@
         <v>1.720409034648276e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.666309548410571</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.9748226575035743</v>
+        <v>1.79604391657662e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.006245900279356207</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.79604391657662e-06</v>
+        <v>0.1480484297227463</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.006245900279356207</v>
+        <v>0.0219569749858407</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1480484297227463</v>
+        <v>1.886962086256291</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.0219569749858407</v>
+        <v>2.144130414119562</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.897103519631049</v>
+        <v>4.345775297582161</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.144130414119562</v>
+        <v>1.02019177804863e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.345775297582161</v>
+        <v>1254233502.300928</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.02019177804863e-16</v>
+        <v>9.443318653240725e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1254233502.300928</v>
+        <v>160.4865398230094</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.443318653240725e-08</v>
+        <v>0.0001562260839250567</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>160.4865398230094</v>
+        <v>8.145995997009695</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001562260839250567</v>
+        <v>1.682287988695147</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.145995997009695</v>
+        <v>0.01036673342990754</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.682287988695147</v>
+        <v>3.247877728434649</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01036673342990754</v>
+        <v>0.9576476420513302</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.247877728434649</v>
+        <v>1.348624551066385</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9576476420513302</v>
+        <v>23</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.348624551066385</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.4409978803925071</v>
       </c>
     </row>
@@ -9132,72 +8952,66 @@
         <v>1.716088129336287e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.6568964998778053</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.9722633787815615</v>
+        <v>1.797064039262629e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.005591025368582031</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.797064039262629e-06</v>
+        <v>0.1486551038183746</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.005591025368582031</v>
+        <v>0.02212932750739402</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1486551038183746</v>
+        <v>1.886597771254512</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02212932750739402</v>
+        <v>2.492592208684455</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.895700981306445</v>
+        <v>4.571357781729323</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.492592208684455</v>
+        <v>9.219893974665853e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.571357781729323</v>
+        <v>1412583182.736527</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>9.219893974665853e-17</v>
+        <v>8.420904737599793e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1412583182.736527</v>
+        <v>183.9729574591969</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.420904737599793e-08</v>
+        <v>0.0001475028679134406</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>183.9729574591969</v>
+        <v>9.940502194689687</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001475028679134406</v>
+        <v>1.254125450801131</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.940502194689687</v>
+        <v>0.01457528701149333</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.254125450801131</v>
+        <v>3.207453188596854</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01457528701149333</v>
+        <v>0.9582498875507969</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.207453188596854</v>
+        <v>1.330586097454327</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9582498875507969</v>
+        <v>12</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.330586097454327</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.5255061697844755</v>
       </c>
     </row>
@@ -9212,72 +9026,66 @@
         <v>1.711879466204062e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.649663964549127</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.9683714700622672</v>
+        <v>1.797958512201142e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.004830638602278156</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.797958512201142e-06</v>
+        <v>0.1492258648614256</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.004830638602278156</v>
+        <v>0.02229151784206496</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1492258648614256</v>
+        <v>1.883181314194058</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02229151784206496</v>
+        <v>2.24134495033139</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.892934766162862</v>
+        <v>4.431428594119574</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.24134495033139</v>
+        <v>9.811351651729233e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.431428594119574</v>
+        <v>1317783857.106692</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.811351651729233e-17</v>
+        <v>9.044175996443131e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1317783857.106692</v>
+        <v>170.3794484125468</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.044175996443131e-08</v>
+        <v>0.0001484172892489767</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>170.3794484125468</v>
+        <v>11.02512149360456</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001484172892489767</v>
+        <v>1.090703278238064</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.02512149360456</v>
+        <v>0.01804061187132912</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.090703278238064</v>
+        <v>2.969139076351305</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01804061187132912</v>
+        <v>0.9568270330692777</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.969139076351305</v>
+        <v>1.324022381837332</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9568270330692777</v>
+        <v>12</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.324022381837332</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.5673556229646979</v>
       </c>
     </row>
@@ -9292,72 +9100,66 @@
         <v>1.70800601824675e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6441677568298692</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9640012192077005</v>
+        <v>1.798723756986498e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.004123345206981129</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.798723756986498e-06</v>
+        <v>0.1497094912996784</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.004123345206981129</v>
+        <v>0.02242980977974954</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1497094912996784</v>
+        <v>1.885950137121105</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02242980977974954</v>
+        <v>2.157540015805598</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.890232834333105</v>
+        <v>4.387798169771715</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.157540015805598</v>
+        <v>1.000744167715087e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.387798169771715</v>
+        <v>1294292465.440022</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.000744167715087e-16</v>
+        <v>9.215392768893855e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1294292465.440022</v>
+        <v>167.6439610631603</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.215392768893855e-08</v>
+        <v>0.0001404060715431395</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>167.6439610631603</v>
+        <v>9.555489857697053</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001404060715431395</v>
+        <v>1.13635747971766</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.555489857697053</v>
+        <v>0.012820111430181</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.13635747971766</v>
+        <v>3.063644612380672</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.012820111430181</v>
+        <v>0.9578877171002624</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.063644612380672</v>
+        <v>1.343747953009903</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9578877171002624</v>
+        <v>12</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.343747953009903</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.5333628316116111</v>
       </c>
     </row>
@@ -9372,72 +9174,66 @@
         <v>1.704565789271106e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.6400266698019468</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.9596536248307581</v>
+        <v>1.799367417689111e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.003423941307000863</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.799367417689111e-06</v>
+        <v>0.1501298821622092</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.003423941307000863</v>
+        <v>0.02255059748157303</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1501298821622092</v>
+        <v>1.889053269269546</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02255059748157303</v>
+        <v>2.094627066441104</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.893302986322337</v>
+        <v>4.47984118053731</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.094627066441104</v>
+        <v>9.600439557958168e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.47984118053731</v>
+        <v>1400176000.999108</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.600439557958168e-17</v>
+        <v>8.57391135501972e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1400176000.999108</v>
+        <v>188.2159295445601</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>8.57391135501972e-08</v>
+        <v>0.0001347177277846161</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>188.2159295445601</v>
+        <v>7.827335882754767</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001347177277846161</v>
+        <v>1.333674306262206</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.827335882754767</v>
+        <v>0.008253776223286257</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.333674306262206</v>
+        <v>3.203968367776921</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008253776223286257</v>
+        <v>0.9589772659879376</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.203968367776921</v>
+        <v>1.336173309204552</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9589772659879376</v>
+        <v>14</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.336173309204552</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.5092224793338258</v>
       </c>
     </row>
@@ -9452,72 +9248,66 @@
         <v>1.701526084650635e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.6369506038054578</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.9555023267499103</v>
+        <v>1.799909069286438e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.003006681945568395</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.799909069286438e-06</v>
+        <v>0.1504746235407923</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.003006681945568395</v>
+        <v>0.02265155499981502</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1504746235407923</v>
+        <v>1.891901872529899</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02265155499981502</v>
+        <v>2.149796264651879</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.893953677856441</v>
+        <v>4.564950586595696</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.149796264651879</v>
+        <v>8.81193596426038e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.564950586595696</v>
+        <v>1543551379.49582</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.81193596426038e-17</v>
+        <v>7.786106729928331e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1543551379.49582</v>
+        <v>209.9488561998949</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>7.786106729928331e-08</v>
+        <v>0.0001268547303937929</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>209.9488561998949</v>
+        <v>7.516251414548</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001268547303937929</v>
+        <v>1.327255565028168</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.516251414548</v>
+        <v>0.007166535620225283</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.327255565028168</v>
+        <v>3.268646540230855</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007166535620225283</v>
+        <v>0.9581425767323728</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.268646540230855</v>
+        <v>1.356213052084666</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9581425767323728</v>
+        <v>14</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.356213052084666</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.5824499703516602</v>
       </c>
     </row>
@@ -9532,72 +9322,66 @@
         <v>1.698515159282767e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.6345300604482195</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9511469283465503</v>
+        <v>1.800417967517912e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.003036108412148871</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.800417967517912e-06</v>
+        <v>0.1507370419565381</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.003036108412148871</v>
+        <v>0.02273078882247822</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1507370419565381</v>
+        <v>1.900004755857488</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02273078882247822</v>
+        <v>2.144510120138758</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.903081402095052</v>
+        <v>4.661406538511151</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.144510120138758</v>
+        <v>9.868593308287707e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.661406538511151</v>
+        <v>1350623525.636742</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.868593308287707e-17</v>
+        <v>8.907860259976238e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1350623525.636742</v>
+        <v>180.0212910760871</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>8.907860259976238e-08</v>
+        <v>0.0001172760503658403</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>180.0212910760871</v>
+        <v>7.629933061999815</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001172760503658403</v>
+        <v>1.29021849516717</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.629933061999815</v>
+        <v>0.006827328302646041</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.29021849516717</v>
+        <v>3.379617731963652</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.006827328302646041</v>
+        <v>0.9576132225200644</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.379617731963652</v>
+        <v>1.351999208326774</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9576132225200644</v>
+        <v>14</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.351999208326774</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.7456851705679389</v>
       </c>
     </row>
@@ -9612,72 +9396,66 @@
         <v>1.695172278469234e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.6324690983769271</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.946126358320508</v>
+        <v>1.800956246573707e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.003320259064894443</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.800956246573707e-06</v>
+        <v>0.1509863787676228</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.003320259064894443</v>
+        <v>0.02280784070388329</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1509863787676228</v>
+        <v>1.899463521279557</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02280784070388329</v>
+        <v>2.203089329526845</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.895836865378032</v>
+        <v>4.794208528224709</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.203089329526845</v>
+        <v>9.329435651180865e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.794208528224709</v>
+        <v>1429670532.105578</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>9.329435651180865e-17</v>
+        <v>8.420732660210551e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1429670532.105578</v>
+        <v>190.6897305217394</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>8.420732660210551e-08</v>
+        <v>9.971078200503921e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>190.6897305217394</v>
+        <v>7.628976944952897</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>9.971078200503921e-05</v>
+        <v>1.174393393050076</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.628976944952897</v>
+        <v>0.005803296062488026</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.174393393050076</v>
+        <v>3.557267757676855</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.005803296062488026</v>
+        <v>0.9549696721103395</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.557267757676855</v>
+        <v>1.37157877128104</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9549696721103395</v>
+        <v>14</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.37157877128104</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>1.102180669306745</v>
       </c>
     </row>
@@ -9692,72 +9470,66 @@
         <v>1.691362511208861e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6307168811532469</v>
+        <v>5.242740474566698e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9402621632835872</v>
+        <v>1.801545026037252e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.242740474566698e-07</v>
+        <v>0.003624646207082403</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.801545026037252e-06</v>
+        <v>0.1512817684494214</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.003624646207082403</v>
+        <v>0.02289927106647279</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1512817684494214</v>
+        <v>1.895364779071348</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02289927106647279</v>
+        <v>2.456472036497563</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.894462806540805</v>
+        <v>4.787829434068769</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.456472036497563</v>
+        <v>9.354312475115241e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.787829434068769</v>
+        <v>1384965466.49147</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>9.354312475115241e-17</v>
+        <v>8.667989007957905e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1384965466.49147</v>
+        <v>179.4278124560741</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>8.667989007957905e-08</v>
+        <v>0.0001029303009116681</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>179.4278124560741</v>
+        <v>8.849042466682388</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001029303009116681</v>
+        <v>1.729476180191194</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.849042466682388</v>
+        <v>0.008060014089820322</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.729476180191194</v>
+        <v>3.7877835916666</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008060014089820322</v>
+        <v>0.9547914812632767</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.7877835916666</v>
+        <v>1.386316845292305</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9547914812632767</v>
+        <v>14</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.386316845292305</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.445374739640531</v>
       </c>
     </row>
@@ -10134,7 +9906,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.445765112898516</v>
+        <v>1.493920927249089</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.575869719246963</v>
@@ -10223,7 +9995,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465379256398443</v>
+        <v>1.50877451474913</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.377092179102178</v>
@@ -10312,7 +10084,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.464130055585446</v>
+        <v>1.511960009068119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.434173264627124</v>
@@ -10401,7 +10173,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515406405285479</v>
+        <v>1.562654126746144</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.188993152240374</v>
@@ -10490,7 +10262,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.534882746160785</v>
+        <v>1.588716873113199</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.588770890813547</v>
@@ -10579,7 +10351,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.559155159072617</v>
+        <v>1.613564320191273</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.288096501881241</v>
@@ -10668,7 +10440,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.600942883528612</v>
+        <v>1.652273818695114</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.61068023355608</v>
@@ -10757,7 +10529,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564213484239223</v>
+        <v>1.616722995315045</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.419332551061747</v>
@@ -10846,7 +10618,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.568140543805689</v>
+        <v>1.614482299408355</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.516867383079117</v>
@@ -10935,7 +10707,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575578238453926</v>
+        <v>1.634815723488098</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.339636523247711</v>
@@ -11024,7 +10796,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553955684122623</v>
+        <v>1.611227623088981</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.461226272059367</v>
@@ -11113,7 +10885,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561393631530051</v>
+        <v>1.618761032455967</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.527055126721657</v>
@@ -11202,7 +10974,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603301555613268</v>
+        <v>1.663386425679273</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.616379789465053</v>
@@ -11291,7 +11063,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608343217102359</v>
+        <v>1.668337211966949</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.512009274500937</v>
@@ -11380,7 +11152,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612775654927332</v>
+        <v>1.674060196113649</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.478035063461304</v>
@@ -11469,7 +11241,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60021051913068</v>
+        <v>1.65411551231767</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.465692545978671</v>
@@ -11558,7 +11330,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.619642505866719</v>
+        <v>1.679063823962349</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.522924368818546</v>
@@ -11647,7 +11419,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606388641455203</v>
+        <v>1.671641344959118</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.528199606077415</v>
@@ -11736,7 +11508,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643106177089073</v>
+        <v>1.708600260249733</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.767498764076372</v>
@@ -11825,7 +11597,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653096905390286</v>
+        <v>1.718370529738574</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.6492489465464</v>
@@ -11914,7 +11686,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.628996780811224</v>
+        <v>1.697324425463757</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.628012467472098</v>
@@ -12003,7 +11775,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.638457948756671</v>
+        <v>1.706380264204062</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.463792164415226</v>
@@ -12092,7 +11864,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675059827722219</v>
+        <v>1.743869025353883</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.565112359646845</v>
@@ -12181,7 +11953,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.666904095261773</v>
+        <v>1.736802261760431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.704412633078373</v>
@@ -12270,7 +12042,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.672305770386869</v>
+        <v>1.741909373162597</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.850610475113237</v>
@@ -12359,7 +12131,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678769433680496</v>
+        <v>1.749908692325914</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.776227713831632</v>
@@ -12448,7 +12220,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.715427391298012</v>
+        <v>1.78280638869755</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.66003844906262</v>
@@ -12537,7 +12309,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681781875858139</v>
+        <v>1.750825206847743</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.603702208087064</v>
@@ -12626,7 +12398,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.665112208938147</v>
+        <v>1.728652423193451</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.795202051472848</v>
@@ -12715,7 +12487,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649340302531503</v>
+        <v>1.720506187978145</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.773159186016116</v>
@@ -12804,7 +12576,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.679669864600486</v>
+        <v>1.751881128333248</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.568739247587281</v>
@@ -12893,7 +12665,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659121451951965</v>
+        <v>1.733802153331262</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.642903933926402</v>
@@ -12982,7 +12754,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.6611967869127</v>
+        <v>1.736323690756377</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.816823541514479</v>
@@ -13071,7 +12843,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.657551977376338</v>
+        <v>1.730057158348504</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.727966412110009</v>
@@ -13160,7 +12932,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.659004576088491</v>
+        <v>1.731013631135121</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.850401925906947</v>
@@ -13249,7 +13021,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.654717018901457</v>
+        <v>1.725559405147604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.815744284670223</v>
@@ -13338,7 +13110,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.653705781453934</v>
+        <v>1.72977158351424</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.774426806096947</v>
@@ -13427,7 +13199,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.619237996843664</v>
+        <v>1.69193119952115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.577140642033095</v>
@@ -13516,7 +13288,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.623760200665687</v>
+        <v>1.697441277354351</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.701497009306455</v>
@@ -13605,7 +13377,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628733353270415</v>
+        <v>1.69960077621813</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.539981144930049</v>
@@ -13694,7 +13466,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653094171175149</v>
+        <v>1.726796852594819</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.951443173688982</v>
@@ -13783,7 +13555,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628734368157173</v>
+        <v>1.699598192196768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.549335584216015</v>
@@ -13872,7 +13644,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621772673414987</v>
+        <v>1.698463058429218</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.774907897434844</v>
@@ -13961,7 +13733,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.608447967656681</v>
+        <v>1.685458524581292</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.692699802445298</v>
@@ -14050,7 +13822,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.609983562616056</v>
+        <v>1.687062375102002</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.895663941399909</v>
@@ -14139,7 +13911,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.58811129244322</v>
+        <v>1.66192349344417</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.537655588964733</v>
@@ -14228,7 +14000,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623371235775688</v>
+        <v>1.697592087543628</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.872629358148971</v>
@@ -14317,7 +14089,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652475492445988</v>
+        <v>1.731342108163415</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.938398227620587</v>
@@ -14406,7 +14178,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.679073877470906</v>
+        <v>1.762090176042904</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.915098856322557</v>
@@ -14495,7 +14267,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686852848370157</v>
+        <v>1.773489972249675</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.014329608280834</v>
@@ -14584,7 +14356,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.741111007654107</v>
+        <v>1.828108271334816</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.160210101033424</v>
@@ -14673,7 +14445,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.774502331427306</v>
+        <v>1.860664022072116</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.917084574524306</v>
@@ -14762,7 +14534,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.79374358433131</v>
+        <v>1.883473525252821</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.435892791944002</v>
@@ -14851,7 +14623,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.833124522395779</v>
+        <v>1.921901961571762</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.482406479089673</v>
@@ -14940,7 +14712,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.850384346485383</v>
+        <v>1.939361071877219</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.374960772578052</v>
@@ -15029,7 +14801,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.861879511940766</v>
+        <v>1.945585757644421</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.544694456698809</v>
@@ -15118,7 +14890,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.884125849713088</v>
+        <v>1.975536212432345</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.853784255374617</v>
@@ -15207,7 +14979,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.904519333737092</v>
+        <v>1.992692797726393</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.928052453642443</v>
@@ -15296,7 +15068,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.951464609456032</v>
+        <v>2.035599416543161</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.928036483425563</v>
@@ -15385,7 +15157,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.975536343362441</v>
+        <v>2.055393160475762</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.573422142843786</v>
@@ -15474,7 +15246,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.977358317750772</v>
+        <v>2.061243390113407</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.295179533074355</v>
@@ -15563,7 +15335,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.960651760205657</v>
+        <v>2.04816503847522</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.908880451681731</v>
@@ -15652,7 +15424,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.981755478460729</v>
+        <v>2.065318517498623</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.955660353584258</v>
@@ -15741,7 +15513,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.973061839029361</v>
+        <v>2.057261829746859</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.58373647940657</v>
@@ -15830,7 +15602,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.959431790100206</v>
+        <v>2.046411291366874</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.581753818167546</v>
@@ -15919,7 +15691,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.934783042110592</v>
+        <v>2.026156468540963</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.604913736652047</v>
@@ -16008,7 +15780,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.926564532577058</v>
+        <v>2.011708198453733</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.218314279309743</v>
@@ -16097,7 +15869,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.935525562312323</v>
+        <v>2.026941182116882</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.92004648311166</v>
@@ -16186,7 +15958,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.914907690575827</v>
+        <v>2.008795501154735</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.262730364004138</v>
@@ -16275,7 +16047,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.912423899922338</v>
+        <v>2.006970465567755</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.82069672194287</v>
@@ -16364,7 +16136,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.925746028964029</v>
+        <v>2.016346288276834</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.241639380564795</v>
@@ -16453,7 +16225,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.906731850925989</v>
+        <v>2.000093737299018</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.649779624033747</v>
@@ -16542,7 +16314,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.925919178465157</v>
+        <v>2.016907897549074</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.041827871490712</v>
@@ -16631,7 +16403,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.923654002481451</v>
+        <v>2.013989628763337</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.957523170134108</v>
@@ -16720,7 +16492,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.92486890807263</v>
+        <v>2.014230927355716</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.693235824329905</v>
@@ -16809,7 +16581,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.924246470368556</v>
+        <v>2.013838255019032</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.879511834779148</v>
@@ -16898,7 +16670,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.945308380807182</v>
+        <v>2.031983854338383</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.703790994157569</v>
@@ -16987,7 +16759,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.954542820108997</v>
+        <v>2.035759091926204</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.134716491456909</v>
@@ -17076,7 +16848,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.94436678798061</v>
+        <v>2.030556831194179</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.690213791971435</v>
@@ -17165,7 +16937,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.96302981904915</v>
+        <v>2.043131061754072</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.33212144345984</v>
@@ -17254,7 +17026,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.965245911195739</v>
+        <v>2.049551294382884</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.32953406986337</v>
@@ -17540,7 +17312,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.221266074061151</v>
+        <v>1.234044081426843</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.346995340490537</v>
@@ -17629,7 +17401,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.235921516496581</v>
+        <v>1.246596769696977</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.332336957593015</v>
@@ -17718,7 +17490,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.221197939754206</v>
+        <v>1.234559330726768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.305201384492251</v>
@@ -17807,7 +17579,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.2250757684859</v>
+        <v>1.238786128429647</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.000936487898701</v>
@@ -17896,7 +17668,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.210103644730743</v>
+        <v>1.22141336814505</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.3019123594253</v>
@@ -17985,7 +17757,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.194222974636766</v>
+        <v>1.197465065602489</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.215192518008371</v>
@@ -18074,7 +17846,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.199384093573022</v>
+        <v>1.206688466419723</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.254598238177195</v>
@@ -18163,7 +17935,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.201241563030187</v>
+        <v>1.209151901808647</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.231165910830307</v>
@@ -18252,7 +18024,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.232384995208955</v>
+        <v>1.244551081883199</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.275460735523615</v>
@@ -18341,7 +18113,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.262509238870743</v>
+        <v>1.283893174096898</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.136659284011553</v>
@@ -18430,7 +18202,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.282792064011813</v>
+        <v>1.301285941747454</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.920557563705698</v>
@@ -18519,7 +18291,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.294421067189041</v>
+        <v>1.318744763491029</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.317891307475851</v>
@@ -18608,7 +18380,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.321694201227315</v>
+        <v>1.350836915751789</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.211666788580732</v>
@@ -18697,7 +18469,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.356938554400434</v>
+        <v>1.391631887857734</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.13729253199858</v>
@@ -18786,7 +18558,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.396828030309256</v>
+        <v>1.437734312674305</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.266788984268639</v>
@@ -18875,7 +18647,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.43274591866768</v>
+        <v>1.470408726547185</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.960797630226632</v>
@@ -18964,7 +18736,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.468100786182546</v>
+        <v>1.521994684792134</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.032496609164498</v>
@@ -19053,7 +18825,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.513874206637025</v>
+        <v>1.574265329385729</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.357346147269758</v>
@@ -19142,7 +18914,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.580700306849502</v>
+        <v>1.650402089827747</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.467359204720457</v>
@@ -19231,7 +19003,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.653265409625569</v>
+        <v>1.730256297429636</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.648854683154052</v>
@@ -19320,7 +19092,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.708177678246313</v>
+        <v>1.792564368151717</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.452558398228124</v>
@@ -19409,7 +19181,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.732056047415155</v>
+        <v>1.820895773073897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.663513174795332</v>
@@ -19498,7 +19270,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.745264995158996</v>
+        <v>1.835865716776455</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.770750384860293</v>
@@ -19587,7 +19359,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.745894117819838</v>
+        <v>1.83646963232847</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.929435938147065</v>
@@ -19676,7 +19448,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.744145093427881</v>
+        <v>1.8324037433949</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.020164500298438</v>
@@ -19765,7 +19537,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.767361144220561</v>
+        <v>1.862977525638985</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.173402859227479</v>
@@ -19854,7 +19626,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.792790296277012</v>
+        <v>1.887643617983439</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.175443061103241</v>
@@ -19943,7 +19715,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.776676484359497</v>
+        <v>1.871204561299701</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.070146854861361</v>
@@ -20032,7 +19804,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.77167781809681</v>
+        <v>1.861372161649303</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.24051416815233</v>
@@ -20121,7 +19893,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.760782199980405</v>
+        <v>1.853661475863823</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.116155341536987</v>
@@ -20210,7 +19982,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.768692465468695</v>
+        <v>1.862489459603396</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.878401099546656</v>
@@ -20299,7 +20071,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.755074949983457</v>
+        <v>1.849496282029157</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.965277381179635</v>
@@ -20388,7 +20160,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.750136980695112</v>
+        <v>1.846705628247236</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.003557415432795</v>
@@ -20477,7 +20249,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745234924430126</v>
+        <v>1.839115110079972</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.955266726680169</v>
@@ -20566,7 +20338,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.74074189724859</v>
+        <v>1.830422551859592</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.993638295333456</v>
@@ -20655,7 +20427,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.721720817680652</v>
+        <v>1.810434262632187</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.963322386872158</v>
@@ -20744,7 +20516,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.724024698584365</v>
+        <v>1.81302698957595</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.021546996531752</v>
@@ -20833,7 +20605,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70847299683856</v>
+        <v>1.793910475208978</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.885630642256089</v>
@@ -20922,7 +20694,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716865947865967</v>
+        <v>1.804711204582532</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.859037823081753</v>
@@ -21011,7 +20783,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724107142397083</v>
+        <v>1.813193414916031</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.953460775784967</v>
@@ -21100,7 +20872,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733831833809498</v>
+        <v>1.825994880255324</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.118100530404333</v>
@@ -21189,7 +20961,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.716177550496738</v>
+        <v>1.807801428543174</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.850749229393439</v>
@@ -21278,7 +21050,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.707964601875805</v>
+        <v>1.798395029609617</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.09209522438358</v>
@@ -21367,7 +21139,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.686166128840194</v>
+        <v>1.777310342051104</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.724787890083592</v>
@@ -21456,7 +21228,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.686692151795502</v>
+        <v>1.77560504480845</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.8886831599492</v>
@@ -21545,7 +21317,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668199731563072</v>
+        <v>1.754574608451651</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.653608886672664</v>
@@ -21634,7 +21406,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.704223626631441</v>
+        <v>1.788882046161069</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.032274228574913</v>
@@ -21723,7 +21495,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.748636388167167</v>
+        <v>1.835640653596462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.203335849816817</v>
@@ -21812,7 +21584,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.780593335134663</v>
+        <v>1.870554242756433</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.226387370579143</v>
@@ -21901,7 +21673,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.80298381539191</v>
+        <v>1.896169022171274</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.267624906851908</v>
@@ -21990,7 +21762,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.847947039947897</v>
+        <v>1.941023868570878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.471753899232963</v>
@@ -22079,7 +21851,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.876181414244726</v>
+        <v>1.967741040820389</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.171699223161588</v>
@@ -22168,7 +21940,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.899081666025101</v>
+        <v>1.992333054707729</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.84804566765348</v>
@@ -22257,7 +22029,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.923433597392727</v>
+        <v>2.013813494709586</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.829260752235724</v>
@@ -22346,7 +22118,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.939759703963917</v>
+        <v>2.027887080468344</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.00141311869714</v>
@@ -22435,7 +22207,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.953055815577577</v>
+        <v>2.038904553481007</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.222415830193581</v>
@@ -22524,7 +22296,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.97307739549878</v>
+        <v>2.060198871557767</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.232040174698922</v>
@@ -22613,7 +22385,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.995893188465727</v>
+        <v>2.079841479932612</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.511639999505967</v>
@@ -22702,7 +22474,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.037888804292251</v>
+        <v>2.116062666225821</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.506921239040451</v>
@@ -22791,7 +22563,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.060544088336692</v>
+        <v>2.134359011414453</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.748286335341184</v>
@@ -22880,7 +22652,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.077779663579484</v>
+        <v>2.151430313849119</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.531772878316636</v>
@@ -22969,7 +22741,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.072141367689709</v>
+        <v>2.149573383417836</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.356093162338774</v>
@@ -23058,7 +22830,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.081866259834138</v>
+        <v>2.156037244621954</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.575402250417421</v>
@@ -23147,7 +22919,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.081995424989272</v>
+        <v>2.155665262763665</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.167743112178158</v>
@@ -23236,7 +23008,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.074240990145233</v>
+        <v>2.15066813750412</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.737820470521887</v>
@@ -23325,7 +23097,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.06238541039774</v>
+        <v>2.142649405783386</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.597103490599479</v>
@@ -23414,7 +23186,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.058728131896904</v>
+        <v>2.136904205928528</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.187010299225672</v>
@@ -23503,7 +23275,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.065902079818455</v>
+        <v>2.144742419930213</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.911684031594559</v>
@@ -23592,7 +23364,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>2.053996694953645</v>
+        <v>2.134992038965423</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.492346007087403</v>
@@ -23681,7 +23453,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>2.05375071807554</v>
+        <v>2.134054644636386</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>5.295032409906938</v>
@@ -23770,7 +23542,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>2.060025212136173</v>
+        <v>2.136785285980793</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>5.186225178746674</v>
@@ -23859,7 +23631,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>2.053955966899128</v>
+        <v>2.133360284845795</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.413678531992353</v>
@@ -23948,7 +23720,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>2.065713150397703</v>
+        <v>2.141674809651102</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>5.823291182949109</v>
@@ -24037,7 +23809,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>2.061700670646632</v>
+        <v>2.13784453057616</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>5.536407265266907</v>
@@ -24126,7 +23898,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>2.059916360397407</v>
+        <v>2.135740475055015</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>5.370721492037495</v>
@@ -24215,7 +23987,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2.058738614813493</v>
+        <v>2.135364884855998</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.999288619225928</v>
@@ -24304,7 +24076,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>2.068788928115401</v>
+        <v>2.142529914430113</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.813846184136745</v>
@@ -24393,7 +24165,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2.070078378658382</v>
+        <v>2.143621837927054</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.007689182344887</v>
@@ -24482,7 +24254,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>2.064972974108125</v>
+        <v>2.141535793202475</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.740906795626294</v>
@@ -24571,7 +24343,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2.076763790671025</v>
+        <v>2.148942082903896</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>5.197619692565179</v>
@@ -24660,7 +24432,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>2.075627838743671</v>
+        <v>2.149395638066756</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.80828667083164</v>
@@ -24946,7 +24718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.59343114229374</v>
+        <v>1.611128689224689</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.188143570647525</v>
@@ -25035,7 +24807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.594442789766167</v>
+        <v>1.616912677500459</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.98895488770993</v>
@@ -25124,7 +24896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.601778037962591</v>
+        <v>1.631153586849676</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.339536587816955</v>
@@ -25213,7 +24985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.609963333827549</v>
+        <v>1.640059516262192</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.784371772230181</v>
@@ -25302,7 +25074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.63421510541224</v>
+        <v>1.663351333560341</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.70296206633299</v>
@@ -25391,7 +25163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617519803096068</v>
+        <v>1.647185446467395</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.973120761763742</v>
@@ -25480,7 +25252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.631897397101887</v>
+        <v>1.662938989798671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.040151649516191</v>
@@ -25569,7 +25341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.643384497163661</v>
+        <v>1.679424026226668</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.807370205508513</v>
@@ -25658,7 +25430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.656591230441899</v>
+        <v>1.691163126327108</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.916427683783678</v>
@@ -25747,7 +25519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.678169765701536</v>
+        <v>1.722769355885293</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.138696853134137</v>
@@ -25836,7 +25608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.697479184093715</v>
+        <v>1.743524065262614</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.01909924005444</v>
@@ -25925,7 +25697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.720341106016106</v>
+        <v>1.769807077353411</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.33759674038648</v>
@@ -26014,7 +25786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.74301738939652</v>
+        <v>1.802735657081747</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.282411432492097</v>
@@ -26103,7 +25875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.750962745748309</v>
+        <v>1.812877458694681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.458659247629456</v>
@@ -26192,7 +25964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.775779995025981</v>
+        <v>1.840214580922248</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.399621867450431</v>
@@ -26281,7 +26053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.785210893000637</v>
+        <v>1.853712552255572</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.223236180311114</v>
@@ -26370,7 +26142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.805079847018196</v>
+        <v>1.872821933158864</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.105831288471555</v>
@@ -26459,7 +26231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.815754339146758</v>
+        <v>1.882146008295196</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.504716857465235</v>
@@ -26548,7 +26320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.829480037487399</v>
+        <v>1.897208573344831</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.581569859054232</v>
@@ -26637,7 +26409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.829814263638302</v>
+        <v>1.899991666108664</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.593466533865625</v>
@@ -26726,7 +26498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.86166259494709</v>
+        <v>1.929982232306734</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.539047163939986</v>
@@ -26815,7 +26587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.866405246051122</v>
+        <v>1.93977917967293</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.501148489637765</v>
@@ -26904,7 +26676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.872029472355088</v>
+        <v>1.946970485160474</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.916013547868002</v>
@@ -26993,7 +26765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.877595699883418</v>
+        <v>1.95149545194311</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.899238963093252</v>
@@ -27082,7 +26854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.889738575885456</v>
+        <v>1.957485605675997</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.868756953893706</v>
@@ -27171,7 +26943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.884750188397436</v>
+        <v>1.95197023713254</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.963899457383585</v>
@@ -27260,7 +27032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.898496341156007</v>
+        <v>1.964091582063105</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.705817021104136</v>
@@ -27349,7 +27121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.909410796341209</v>
+        <v>1.974935474501097</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.991149563170744</v>
@@ -27438,7 +27210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.907229454759116</v>
+        <v>1.972420748442207</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.108545971609185</v>
@@ -27527,7 +27299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.889448605033864</v>
+        <v>1.954168636735165</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.964327035369125</v>
@@ -27616,7 +27388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.895013681400145</v>
+        <v>1.959219626536435</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.779436555755971</v>
@@ -27705,7 +27477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.889467397942122</v>
+        <v>1.956095432141234</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.927518729634873</v>
@@ -27794,7 +27566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.888057226599612</v>
+        <v>1.954164265375756</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.154620246512174</v>
@@ -27883,7 +27655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.891139310537737</v>
+        <v>1.958167976190264</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.712722883448073</v>
@@ -27972,7 +27744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.896549219125495</v>
+        <v>1.961718268428754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.659373483004721</v>
@@ -28061,7 +27833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.893648687006506</v>
+        <v>1.958019108901214</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.819473275162752</v>
@@ -28150,7 +27922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.896257178249865</v>
+        <v>1.958782294944851</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.157438525280464</v>
@@ -28239,7 +28011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.89464089314503</v>
+        <v>1.9560483098329</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.404497814535874</v>
@@ -28328,7 +28100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.903904027383501</v>
+        <v>1.965674803894791</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.219539118556615</v>
@@ -28417,7 +28189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.906678503843148</v>
+        <v>1.970333707236809</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.828096832720677</v>
@@ -28506,7 +28278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.912783581630727</v>
+        <v>1.976552530380794</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.517349564241288</v>
@@ -28595,7 +28367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.910464544609976</v>
+        <v>1.973354522896927</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.032158973876963</v>
@@ -28684,7 +28456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.903662777042259</v>
+        <v>1.961716889994834</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.316042458899041</v>
@@ -28773,7 +28545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.888963100196595</v>
+        <v>1.948702606253614</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.438345468702899</v>
@@ -28862,7 +28634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.899654235917624</v>
+        <v>1.958480920130721</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.821586772375503</v>
@@ -28951,7 +28723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.900451991363695</v>
+        <v>1.96027551348112</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.573409051641386</v>
@@ -29040,7 +28812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.909265068109995</v>
+        <v>1.966974256171728</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.733211105386709</v>
@@ -29129,7 +28901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.93624182800203</v>
+        <v>1.994361087232883</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.340492136659436</v>
@@ -29218,7 +28990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.951517832300112</v>
+        <v>2.011288963968124</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.834802115928838</v>
@@ -29307,7 +29079,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.973354608981585</v>
+        <v>2.03504062318659</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.306750256193496</v>
@@ -29396,7 +29168,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.9923337258255</v>
+        <v>2.054416439711936</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.221176791897995</v>
@@ -29485,7 +29257,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.007816168585767</v>
+        <v>2.070816919487454</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.200151737711812</v>
@@ -29574,7 +29346,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.013282244060717</v>
+        <v>2.076982885661124</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.519473792427286</v>
@@ -29663,7 +29435,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.015146226687127</v>
+        <v>2.082868029417306</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>5.01442969655904</v>
@@ -29752,7 +29524,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.026431324601728</v>
+        <v>2.09390142913929</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.797165097697665</v>
@@ -29841,7 +29613,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.034378055518169</v>
+        <v>2.101862763795238</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.159764854523233</v>
@@ -29930,7 +29702,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.049368011118321</v>
+        <v>2.116036330840954</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5.185068368326381</v>
@@ -30019,7 +29791,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.049877715195145</v>
+        <v>2.120798664385912</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5.337904459409275</v>
@@ -30108,7 +29880,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.070543399027724</v>
+        <v>2.13951676953755</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.253039983813003</v>
@@ -30197,7 +29969,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.084859275600122</v>
+        <v>2.15216114522373</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.248925574928111</v>
@@ -30286,7 +30058,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.09175524470833</v>
+        <v>2.16086090221884</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.876711235582531</v>
@@ -30375,7 +30147,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.096154033889542</v>
+        <v>2.16499896099118</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>5.486064027982057</v>
@@ -30464,7 +30236,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.08967370536544</v>
+        <v>2.158739302138076</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.712350325921651</v>
@@ -30553,7 +30325,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.084353973729814</v>
+        <v>2.15555144448627</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.553881763702321</v>
@@ -30642,7 +30414,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.079727567281147</v>
+        <v>2.152369131691431</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>6.235304463618978</v>
@@ -30731,7 +30503,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.069331696173529</v>
+        <v>2.144805727440037</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.864601907658303</v>
@@ -30820,7 +30592,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.069378275877934</v>
+        <v>2.143786519525826</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>5.412464436173533</v>
@@ -30909,7 +30681,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.080253548669742</v>
+        <v>2.154233848625003</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.712840222277909</v>
@@ -30998,7 +30770,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>2.080380327775858</v>
+        <v>2.154336680744707</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.657497166682549</v>
@@ -31087,7 +30859,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>2.080972877252505</v>
+        <v>2.152288580610795</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>5.432796222887872</v>
@@ -31176,7 +30948,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>2.076783205331242</v>
+        <v>2.147449420928077</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>5.881764103892483</v>
@@ -31265,7 +31037,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>2.070741454488594</v>
+        <v>2.14375834498521</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>5.292395277243418</v>
@@ -31354,7 +31126,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>2.080824007165297</v>
+        <v>2.152945639732514</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>5.225544833485082</v>
@@ -31443,7 +31215,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>2.080844184713366</v>
+        <v>2.153232644927105</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>5.498899232509484</v>
@@ -31532,7 +31304,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>2.074157682645184</v>
+        <v>2.148055169008387</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>5.423953991658164</v>
@@ -31621,7 +31393,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2.074076604253825</v>
+        <v>2.149207855929823</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>6.377845755144616</v>
@@ -31710,7 +31482,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>2.075906339472438</v>
+        <v>2.15023347062567</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>5.358945960519638</v>
@@ -31799,7 +31571,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2.086217343815345</v>
+        <v>2.158696239355023</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.482442948743601</v>
@@ -31888,7 +31660,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>2.082047418261352</v>
+        <v>2.157219541193446</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>5.327170428171382</v>
@@ -31977,7 +31749,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2.086228034291644</v>
+        <v>2.159158748142102</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>5.093741088131939</v>
@@ -32066,7 +31838,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>2.091194828316001</v>
+        <v>2.16499823809961</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.66715168757281</v>
@@ -32352,7 +32124,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.687297851671</v>
+        <v>1.668439747575854</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.223020184610763</v>
@@ -32441,7 +32213,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.685354175746243</v>
+        <v>1.667889948893982</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.160470854090416</v>
@@ -32530,7 +32302,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.684947345187489</v>
+        <v>1.666046373835372</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.713396742196564</v>
@@ -32619,7 +32391,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665002100722246</v>
+        <v>1.654395825053791</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.608879551179257</v>
@@ -32708,7 +32480,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.662267888248491</v>
+        <v>1.648676275559054</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.625826093289318</v>
@@ -32797,7 +32569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.626394338909853</v>
+        <v>1.614840673392278</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.485053616711988</v>
@@ -32886,7 +32658,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61184625230954</v>
+        <v>1.596300682921522</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.428047435378259</v>
@@ -32975,7 +32747,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606009824010116</v>
+        <v>1.591598285113239</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.432628063201141</v>
@@ -33064,7 +32836,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.638398358798683</v>
+        <v>1.633458683078836</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.458211869518665</v>
@@ -33153,7 +32925,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657649042373549</v>
+        <v>1.658919147945455</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.504840495911829</v>
@@ -33242,7 +33014,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.68122006718636</v>
+        <v>1.692954251183484</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.479648147144656</v>
@@ -33331,7 +33103,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695708630322808</v>
+        <v>1.709760026190034</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.638607406820801</v>
@@ -33420,7 +33192,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.716899070154195</v>
+        <v>1.734320382751626</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.644118817633518</v>
@@ -33509,7 +33281,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730576044168437</v>
+        <v>1.747752480970228</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.652902392613965</v>
@@ -33598,7 +33370,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.758219180326767</v>
+        <v>1.781490662878271</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.770216924839252</v>
@@ -33687,7 +33459,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77403899399582</v>
+        <v>1.805218321676681</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.581875620730672</v>
@@ -33776,7 +33548,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.794962270686172</v>
+        <v>1.826536807897467</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.74608223268085</v>
@@ -33865,7 +33637,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.813800268249207</v>
+        <v>1.841587406776785</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.335333236212782</v>
@@ -33954,7 +33726,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.837595521239995</v>
+        <v>1.870988599678449</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.946360093485707</v>
@@ -34043,7 +33815,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.851495451231036</v>
+        <v>1.891218711323704</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.052083314240515</v>
@@ -34132,7 +33904,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.879135677613311</v>
+        <v>1.918011346251764</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.447705417979329</v>
@@ -34221,7 +33993,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.88875879977099</v>
+        <v>1.93590558585406</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.157819484022717</v>
@@ -34310,7 +34082,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.895776618627893</v>
+        <v>1.944255817860846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.336005619618273</v>
@@ -34399,7 +34171,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.874462310791754</v>
+        <v>1.922133558011564</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.169294977900994</v>
@@ -34488,7 +34260,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.866192452978942</v>
+        <v>1.913650591727666</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.12748424372263</v>
@@ -34577,7 +34349,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.866059283515953</v>
+        <v>1.915310901504246</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.395409083831444</v>
@@ -34666,7 +34438,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.873012180996406</v>
+        <v>1.922083809865817</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.281428676977178</v>
@@ -34755,7 +34527,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867662391719289</v>
+        <v>1.921166742321952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.418237277349978</v>
@@ -34844,7 +34616,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.870573119428445</v>
+        <v>1.926227232034758</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.542148189556666</v>
@@ -34933,7 +34705,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.879488977062051</v>
+        <v>1.934247077426831</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.992058827143984</v>
@@ -35022,7 +34794,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.885978439449357</v>
+        <v>1.939651340242166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.36273004986992</v>
@@ -35111,7 +34883,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.885918337880374</v>
+        <v>1.939840578506737</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.515054526598372</v>
@@ -35200,7 +34972,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.914507021136338</v>
+        <v>1.969209381221491</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.955725581908326</v>
@@ -35289,7 +35061,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.917686078224312</v>
+        <v>1.975604305441521</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.446020019561716</v>
@@ -35378,7 +35150,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.918354262628519</v>
+        <v>1.974422614400614</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.089624794456347</v>
@@ -35467,7 +35239,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.910060561490295</v>
+        <v>1.967825545467764</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.424752524463526</v>
@@ -35556,7 +35328,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.905754486500349</v>
+        <v>1.965677177243062</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.152604769645509</v>
@@ -35645,7 +35417,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.899971920000639</v>
+        <v>1.962156083259101</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.863095680950696</v>
@@ -35734,7 +35506,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.914649189827922</v>
+        <v>1.976124021252283</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.448896768818022</v>
@@ -35823,7 +35595,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.923322972300692</v>
+        <v>1.983794484015715</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.071050845765154</v>
@@ -35912,7 +35684,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.926957776349064</v>
+        <v>1.986482060884602</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.936353912162317</v>
@@ -36001,7 +35773,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.912370107138561</v>
+        <v>1.971721670914549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.001525478943807</v>
@@ -36090,7 +35862,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.766212549394078</v>
+        <v>1.837211282854665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.143679111346179</v>
@@ -36179,7 +35951,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.734739274947044</v>
+        <v>1.80444883373151</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.164347615435344</v>
@@ -36268,7 +36040,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.730856797784826</v>
+        <v>1.796867351755969</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.168699419363104</v>
@@ -36357,7 +36129,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.7197165955997</v>
+        <v>1.786230812801654</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.170731277260444</v>
@@ -36446,7 +36218,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.747358838146695</v>
+        <v>1.815995300275211</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.213192240582245</v>
@@ -36535,7 +36307,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.775257403943565</v>
+        <v>1.848566889864235</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.282436547575642</v>
@@ -36624,7 +36396,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.751511788434835</v>
+        <v>1.832340454627664</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.400628284551358</v>
@@ -36713,7 +36485,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.781074940002423</v>
+        <v>1.865337372811138</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.519453597070088</v>
@@ -36802,7 +36574,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.810448495303427</v>
+        <v>1.894796730035828</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.600965198593359</v>
@@ -36891,7 +36663,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.833872948143816</v>
+        <v>1.919538849462764</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.584207906354327</v>
@@ -36980,7 +36752,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.779256146060751</v>
+        <v>1.870178945570432</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.548500137127047</v>
@@ -37069,7 +36841,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.800332854476425</v>
+        <v>1.892220865631008</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.564433451814408</v>
@@ -37158,7 +36930,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.818679078814501</v>
+        <v>1.910911017471045</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.65089938930584</v>
@@ -37247,7 +37019,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.834880711107924</v>
+        <v>1.927242800955971</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.70141563093172</v>
@@ -37336,7 +37108,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.858533955519239</v>
+        <v>1.950192998642691</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.846789795319671</v>
@@ -37425,7 +37197,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.93939107550612</v>
+        <v>2.024593081393398</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.909801968920696</v>
@@ -37514,7 +37286,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.976056284006212</v>
+        <v>2.059673452896327</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.917824985769059</v>
@@ -37603,7 +37375,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.991574686620271</v>
+        <v>2.075805533580851</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.907979382273191</v>
@@ -37692,7 +37464,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.010818795287517</v>
+        <v>2.092522224387244</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.975226108100799</v>
@@ -37781,7 +37553,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.01586063102145</v>
+        <v>2.097179558044254</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.959039463160336</v>
@@ -37870,7 +37642,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.025827831917094</v>
+        <v>2.103305068262732</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.0966176972799</v>
@@ -37959,7 +37731,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.074199276708993</v>
+        <v>2.13856292747409</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.080415832663141</v>
@@ -38048,7 +37820,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.073002877943285</v>
+        <v>2.13717434010433</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.928211518224207</v>
@@ -38137,7 +37909,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.072657756773393</v>
+        <v>2.136567785678336</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.859090420464574</v>
@@ -38226,7 +37998,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.080834911366049</v>
+        <v>2.139479693985048</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.02880242522069</v>
@@ -38315,7 +38087,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.197696055663187</v>
+        <v>2.22181861801236</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>5.403731195680638</v>
@@ -38404,7 +38176,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>2.19905931521829</v>
+        <v>2.222495265218315</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>6.136044436765091</v>
@@ -38493,7 +38265,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>2.201125795173805</v>
+        <v>2.221223279140054</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>7.436641997730097</v>
@@ -38582,7 +38354,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>2.200470080828215</v>
+        <v>2.221637000131703</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>7.044806575687006</v>
@@ -38671,7 +38443,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>2.198398930327615</v>
+        <v>2.220351185886964</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>6.039773847378307</v>
@@ -38760,7 +38532,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>2.200248264904295</v>
+        <v>2.221452258981952</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>8.478562568484154</v>
@@ -38849,7 +38621,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>2.196629273786675</v>
+        <v>2.219890446751519</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>5.714008539693764</v>
@@ -38938,7 +38710,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>2.196733677052006</v>
+        <v>2.219525594417656</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>5.733192829210353</v>
@@ -39027,7 +38799,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2.194581016017124</v>
+        <v>2.217781027623786</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>7.653483691104477</v>
@@ -39116,7 +38888,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>2.194970146648904</v>
+        <v>2.218163814147247</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>6.895149837300439</v>
@@ -39205,7 +38977,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2.186981970657317</v>
+        <v>2.214619245609025</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>5.281636967774762</v>
@@ -39294,7 +39066,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>2.185328330136192</v>
+        <v>2.21443308816264</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>6.346933614374318</v>
@@ -39383,7 +39155,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2.191834237504713</v>
+        <v>2.218839711916246</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>6.082200574621955</v>
@@ -39472,7 +39244,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>2.187040993922778</v>
+        <v>2.214725613098441</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>5.514026098234098</v>
@@ -39758,7 +39530,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.546372682374508</v>
+        <v>1.564538037532379</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.572688355142049</v>
@@ -39847,7 +39619,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551549654330408</v>
+        <v>1.561408187520759</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.441828772628427</v>
@@ -39936,7 +39708,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.536447844727738</v>
+        <v>1.549009089805261</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.580749485631096</v>
@@ -40025,7 +39797,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.546494216650861</v>
+        <v>1.561982602264187</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.322249845560701</v>
@@ -40114,7 +39886,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540025153209155</v>
+        <v>1.558800561751955</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.411049932448692</v>
@@ -40203,7 +39975,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.497350999608801</v>
+        <v>1.517318890911854</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45883268522037</v>
@@ -40292,7 +40064,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.480344802845332</v>
+        <v>1.497942454593937</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.348613833703435</v>
@@ -40381,7 +40153,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.434783391732332</v>
+        <v>1.443442191994332</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.330373883092892</v>
@@ -40470,7 +40242,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.455228808519154</v>
+        <v>1.475171124659952</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.32748944743902</v>
@@ -40559,7 +40331,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.489784812502468</v>
+        <v>1.519662331778617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.388892812917716</v>
@@ -40648,7 +40420,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502114589059671</v>
+        <v>1.534555199312448</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.399949881106499</v>
@@ -40737,7 +40509,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515280023402687</v>
+        <v>1.553467098887582</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.529765603462681</v>
@@ -40826,7 +40598,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55007974988128</v>
+        <v>1.591926011894325</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.50716871162575</v>
@@ -40915,7 +40687,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.58329543723512</v>
+        <v>1.627105923318497</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.592137275683156</v>
@@ -41004,7 +40776,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614800313890982</v>
+        <v>1.663957100340935</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.523665864807619</v>
@@ -41093,7 +40865,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625173081663896</v>
+        <v>1.680819122580541</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.545055270692403</v>
@@ -41182,7 +40954,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.625894888365316</v>
+        <v>1.69095517786178</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.690310425117839</v>
@@ -41271,7 +41043,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652553720480321</v>
+        <v>1.721965114345053</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.639079738112641</v>
@@ -41360,7 +41132,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.672900718769007</v>
+        <v>1.747346435419526</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.770931908536614</v>
@@ -41449,7 +41221,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.724125750793209</v>
+        <v>1.799596553321197</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.696904734443526</v>
@@ -41538,7 +41310,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717783501716695</v>
+        <v>1.796635341063022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.82165265031322</v>
@@ -41627,7 +41399,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.729169504135541</v>
+        <v>1.813333409061915</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.819315462031659</v>
@@ -41716,7 +41488,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.784181265541838</v>
+        <v>1.867997133088739</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.745477452828037</v>
@@ -41805,7 +41577,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.779980520866071</v>
+        <v>1.864564588467986</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.830421649619892</v>
@@ -41894,7 +41666,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.766063429529077</v>
+        <v>1.853137456543303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.899300031025025</v>
@@ -41983,7 +41755,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.772073718922992</v>
+        <v>1.862358333462986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.883146097628398</v>
@@ -42072,7 +41844,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.778445945155266</v>
+        <v>1.868503587026054</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.74891053693818</v>
@@ -42161,7 +41933,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.771000845965448</v>
+        <v>1.862263585868078</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.850252316872015</v>
@@ -42250,7 +42022,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768513679153861</v>
+        <v>1.860536122698166</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.958243200644665</v>
@@ -42339,7 +42111,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.76343407830566</v>
+        <v>1.854950103208492</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.802923056104038</v>
@@ -42428,7 +42200,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.796709871699772</v>
+        <v>1.885048347916888</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.084084492526613</v>
@@ -42517,7 +42289,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.810400097278983</v>
+        <v>1.898804618146738</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.882664329583233</v>
@@ -42606,7 +42378,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.809819063600933</v>
+        <v>1.895322669269305</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.003049456374999</v>
@@ -42695,7 +42467,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.80927933235295</v>
+        <v>1.892357751723554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.812444802413732</v>
@@ -42784,7 +42556,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.807030307449629</v>
+        <v>1.890578432252343</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.395795557391347</v>
@@ -42873,7 +42645,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.834821767643833</v>
+        <v>1.912630989346935</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.088734837184</v>
@@ -42962,7 +42734,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.826534936162154</v>
+        <v>1.906266323418424</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.743728919057363</v>
@@ -43051,7 +42823,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.8163237823765</v>
+        <v>1.898299879961899</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.404395507451972</v>
@@ -43140,7 +42912,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.822455144020118</v>
+        <v>1.905680823878588</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.041166520554462</v>
@@ -43229,7 +43001,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.836686947167678</v>
+        <v>1.918571738007195</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.800856240325788</v>
@@ -43318,7 +43090,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.841482328285507</v>
+        <v>1.923884408945024</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.592690806800873</v>
@@ -43407,7 +43179,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.83866249829441</v>
+        <v>1.922610403966568</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.02322655009684</v>
@@ -43496,7 +43268,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.831466561226791</v>
+        <v>1.916415051254089</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.485638222058043</v>
@@ -43585,7 +43357,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.79627788137355</v>
+        <v>1.882641368956503</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.471690577949016</v>
@@ -43674,7 +43446,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.790437216768499</v>
+        <v>1.878763227747979</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.413772808737527</v>
@@ -43763,7 +43535,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.792671714655999</v>
+        <v>1.880182981788849</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.41334758087561</v>
@@ -43852,7 +43624,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.814013622333648</v>
+        <v>1.901927635330867</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.235217819038596</v>
@@ -43941,7 +43713,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.856924310576155</v>
+        <v>1.946560958686519</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.481567948383042</v>
@@ -44030,7 +43802,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.888264610621677</v>
+        <v>1.97730220543464</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.786269562383608</v>
@@ -44119,7 +43891,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.92214628019077</v>
+        <v>2.008930235708062</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.152567745463159</v>
@@ -44208,7 +43980,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.935804473990672</v>
+        <v>2.022958411821346</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.404093484071013</v>
@@ -44297,7 +44069,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.95204226405663</v>
+        <v>2.041730149011577</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.641925945211554</v>
@@ -44386,7 +44158,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.981784991490132</v>
+        <v>2.068621661579098</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.895160134056429</v>
@@ -44475,7 +44247,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.003110313281196</v>
+        <v>2.085622674954826</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.235847479688005</v>
@@ -44564,7 +44336,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.014244478115922</v>
+        <v>2.094568517507051</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.248539119528976</v>
@@ -44653,7 +44425,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.002999420221018</v>
+        <v>2.089459449014462</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.054976610757617</v>
@@ -44742,7 +44514,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.016221563077218</v>
+        <v>2.102239444792755</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.300845720346848</v>
@@ -44831,7 +44603,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.044532320383877</v>
+        <v>2.125643667422803</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.201340506254599</v>
@@ -44920,7 +44692,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.071777792606656</v>
+        <v>2.149876951739142</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.44770661183342</v>
@@ -45009,7 +44781,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.086955101452072</v>
+        <v>2.160634115051851</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.786605197848854</v>
@@ -45098,7 +44870,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.095269288702114</v>
+        <v>2.169981093971311</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.42955192515381</v>
@@ -45187,7 +44959,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.099887757547103</v>
+        <v>2.171744755397339</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.81641370457465</v>
@@ -45276,7 +45048,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.099179724175447</v>
+        <v>2.170445099588201</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.579809424442149</v>
@@ -45365,7 +45137,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.076377253912628</v>
+        <v>2.155615142178726</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.492112705219177</v>
@@ -45454,7 +45226,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.074038342924643</v>
+        <v>2.154210396431147</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.327717157736972</v>
@@ -45543,7 +45315,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>2.090599667758792</v>
+        <v>2.16642872462893</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.770293069350819</v>
@@ -45632,7 +45404,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>2.09593803907608</v>
+        <v>2.16699424288481</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.285958441040258</v>
@@ -45721,7 +45493,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>2.100758856800129</v>
+        <v>2.171149134352684</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.556520583184356</v>
@@ -45810,7 +45582,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>2.099785277393923</v>
+        <v>2.170015250212094</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.918730054612625</v>
@@ -45899,7 +45671,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>2.101865125097676</v>
+        <v>2.170403304053698</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.653466562180723</v>
@@ -45988,7 +45760,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>2.102709871535079</v>
+        <v>2.1691830446796</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.424660272066738</v>
@@ -46077,7 +45849,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>2.102138722737688</v>
+        <v>2.167368959633204</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.638960835070605</v>
@@ -46166,7 +45938,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>2.102674978459301</v>
+        <v>2.165849459471618</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>5.090090984712934</v>
@@ -46255,7 +46027,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>2.103948587200911</v>
+        <v>2.166816928464552</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.646237006887325</v>
@@ -46344,7 +46116,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>2.093130471790173</v>
+        <v>2.157086354667642</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.185445957631856</v>
@@ -46433,7 +46205,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>2.09371162453865</v>
+        <v>2.159060009896159</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.986213389426667</v>
@@ -46522,7 +46294,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>2.091575111221661</v>
+        <v>2.15973047354654</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>4.363035834062298</v>
@@ -46611,7 +46383,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2.092808010363523</v>
+        <v>2.159903384261378</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.200208141282205</v>
@@ -46700,7 +46472,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>2.105953652614811</v>
+        <v>2.170231580441221</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>4.653768333601817</v>
@@ -46789,7 +46561,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2.083860343759872</v>
+        <v>2.154246213465509</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.272661506410939</v>
@@ -46878,7 +46650,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>2.080809385778988</v>
+        <v>2.151721045482606</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.271981383296058</v>
@@ -47164,7 +46936,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.472359501178755</v>
+        <v>1.501949783209354</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.574144895581215</v>
@@ -47253,7 +47025,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496107023260952</v>
+        <v>1.520510239871334</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.35348382195185</v>
@@ -47342,7 +47114,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.503511782719037</v>
+        <v>1.533336453830141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.40852440973071</v>
@@ -47431,7 +47203,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.557117622252886</v>
+        <v>1.583621476299911</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.386092705365849</v>
@@ -47520,7 +47292,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579286025171446</v>
+        <v>1.608623413289127</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.688604937302421</v>
@@ -47609,7 +47381,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.585118547933791</v>
+        <v>1.609939354085361</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.406358089004342</v>
@@ -47698,7 +47470,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.616507554628742</v>
+        <v>1.636492061394857</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.54376832879861</v>
@@ -47787,7 +47559,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577766283737803</v>
+        <v>1.603349173194759</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.493013294008446</v>
@@ -47876,7 +47648,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584455240158651</v>
+        <v>1.606754452042144</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.535078050715613</v>
@@ -47965,7 +47737,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596799367217451</v>
+        <v>1.628473818860039</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.370030367921823</v>
@@ -48054,7 +47826,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584067323423501</v>
+        <v>1.621531361558011</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.546626133511897</v>
@@ -48143,7 +47915,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587177857118152</v>
+        <v>1.628765989484128</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.727977675086788</v>
@@ -48232,7 +48004,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624443014002065</v>
+        <v>1.659943476996514</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.681146034607518</v>
@@ -48321,7 +48093,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.630420683781489</v>
+        <v>1.665603511363809</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.614069683753524</v>
@@ -48410,7 +48182,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638020859680511</v>
+        <v>1.675436251835525</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.657445297645317</v>
@@ -48499,7 +48271,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631097691016886</v>
+        <v>1.66658859786697</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.659422780359812</v>
@@ -48588,7 +48360,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.644365251330036</v>
+        <v>1.685871470949758</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.695121774903416</v>
@@ -48677,7 +48449,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631109502789809</v>
+        <v>1.677103865370181</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.732156495606897</v>
@@ -48766,7 +48538,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66290161809778</v>
+        <v>1.704832747904663</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.686406160716023</v>
@@ -48855,7 +48627,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668354268251973</v>
+        <v>1.713785098030489</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.850823703636055</v>
@@ -48944,7 +48716,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.646062331705127</v>
+        <v>1.696103461790113</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.812118894320578</v>
@@ -49033,7 +48805,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65814407483122</v>
+        <v>1.709762366670039</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.688448119172108</v>
@@ -49122,7 +48894,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.696733087853029</v>
+        <v>1.750082845819891</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.777253618222108</v>
@@ -49211,7 +48983,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.685438926343843</v>
+        <v>1.740196572309222</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.700603892353628</v>
@@ -49300,7 +49072,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.691293819047223</v>
+        <v>1.74604244792516</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.956975897508349</v>
@@ -49389,7 +49161,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.686223224226837</v>
+        <v>1.742189089483236</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.948964242247944</v>
@@ -49478,7 +49250,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.722691137663422</v>
+        <v>1.777558976160499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.79594810575494</v>
@@ -49567,7 +49339,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694149489803643</v>
+        <v>1.75635728450227</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.758682006211171</v>
@@ -49656,7 +49428,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679592573098878</v>
+        <v>1.737615271351056</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.841356138043206</v>
@@ -49745,7 +49517,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.663907865207426</v>
+        <v>1.724644615981849</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.903162904364338</v>
@@ -49834,7 +49606,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.69016491990193</v>
+        <v>1.748173265265497</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.769729220680311</v>
@@ -49923,7 +49695,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.674173783860987</v>
+        <v>1.733293695454298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.752793410216936</v>
@@ -50012,7 +49784,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.673059652972631</v>
+        <v>1.730114046806553</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.917568870258084</v>
@@ -50101,7 +49873,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.673107829674123</v>
+        <v>1.731383296693773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.890497524344027</v>
@@ -50190,7 +49962,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.676354451109456</v>
+        <v>1.735508248104462</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.921377941045704</v>
@@ -50279,7 +50051,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686071618460696</v>
+        <v>1.747384160988771</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.066582768313732</v>
@@ -50368,7 +50140,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685778691035547</v>
+        <v>1.748594426731419</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.098902613914273</v>
@@ -50457,7 +50229,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665995253630911</v>
+        <v>1.729145381554765</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.661303306872226</v>
@@ -50546,7 +50318,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662708010585204</v>
+        <v>1.726263342828984</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.854944783412873</v>
@@ -50635,7 +50407,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.668685584294488</v>
+        <v>1.730170506013549</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.664407845260167</v>
@@ -50724,7 +50496,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.694081488168154</v>
+        <v>1.754544707701873</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.980090360135668</v>
@@ -50813,7 +50585,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673820827224407</v>
+        <v>1.732268391203563</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.627077831496955</v>
@@ -50902,7 +50674,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.685844703546912</v>
+        <v>1.74211805369697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.950619240281342</v>
@@ -50991,7 +50763,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685317237001008</v>
+        <v>1.741810298097423</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.810206686732619</v>
@@ -51080,7 +50852,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.690069055960024</v>
+        <v>1.748016179342448</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.973384212028295</v>
@@ -51169,7 +50941,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.681262548977546</v>
+        <v>1.737566154919302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.643215440146066</v>
@@ -51258,7 +51030,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.720335574816845</v>
+        <v>1.776549021062189</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.184662398285618</v>
@@ -51347,7 +51119,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.760700207256218</v>
+        <v>1.822021534835939</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.126500458271912</v>
@@ -51436,7 +51208,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.77468917952325</v>
+        <v>1.841658370099316</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.056000577604351</v>
@@ -51525,7 +51297,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.787618616796935</v>
+        <v>1.857926085499386</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.186479911503229</v>
@@ -51614,7 +51386,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.833602979604554</v>
+        <v>1.903242343785804</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.239024453962305</v>
@@ -51703,7 +51475,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.866327412410085</v>
+        <v>1.936427854995689</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.153858210802759</v>
@@ -51792,7 +51564,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.858537351651021</v>
+        <v>1.933295697115871</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.243805890864607</v>
@@ -51881,7 +51653,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.900369586741586</v>
+        <v>1.973443662131732</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.375894013797444</v>
@@ -51970,7 +51742,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.918245158760193</v>
+        <v>1.991064719700242</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.66627316396589</v>
@@ -52059,7 +51831,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.929318813138487</v>
+        <v>1.999326783157331</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.758837880262405</v>
@@ -52148,7 +51920,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.946081969315715</v>
+        <v>2.023257885335183</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.60323434907277</v>
@@ -52237,7 +52009,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.959645455742032</v>
+        <v>2.038256421040356</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.584075117822969</v>
@@ -52326,7 +52098,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.999729421870402</v>
+        <v>2.075218918273177</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.073522190829649</v>
@@ -52415,7 +52187,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.018996662141685</v>
+        <v>2.090935624831305</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.998821581707574</v>
@@ -52504,7 +52276,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.017681010555507</v>
+        <v>2.092362961815275</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.000067285863942</v>
@@ -52593,7 +52365,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>2.001820946568523</v>
+        <v>2.083127736697969</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.188578459437475</v>
@@ -52682,7 +52454,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>2.017908752390643</v>
+        <v>2.094412155581072</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.777982776638466</v>
@@ -52771,7 +52543,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>2.019696462113524</v>
+        <v>2.095740416072887</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.43380396399507</v>
@@ -52860,7 +52632,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>2.006500856633048</v>
+        <v>2.084979672391414</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.971217937693724</v>
@@ -52949,7 +52721,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.98553027758101</v>
+        <v>2.069062713863283</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.97492310885617</v>
@@ -53038,7 +52810,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.978752049475451</v>
+        <v>2.05673028415479</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.358929624822391</v>
@@ -53127,7 +52899,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.997280697632392</v>
+        <v>2.078412218244964</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.63302901430415</v>
@@ -53216,7 +52988,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.979185460046467</v>
+        <v>2.064262092518732</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.408605491060804</v>
@@ -53305,7 +53077,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.97885775828143</v>
+        <v>2.063683746984779</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.292193810212546</v>
@@ -53394,7 +53166,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.992159330811637</v>
+        <v>2.072962988779868</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.796400992436567</v>
@@ -53483,7 +53255,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.976683907677326</v>
+        <v>2.060462127940076</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.937305576770706</v>
@@ -53572,7 +53344,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.984763353565307</v>
+        <v>2.068169731236981</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.1683775578073</v>
@@ -53661,7 +53433,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.982932039085909</v>
+        <v>2.066402829557069</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.777178918008985</v>
@@ -53750,7 +53522,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.980587808350303</v>
+        <v>2.064326632628866</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.988943002617531</v>
@@ -53839,7 +53611,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.979724545848275</v>
+        <v>2.064676351459459</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.069492526159991</v>
@@ -53928,7 +53700,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.999804516090984</v>
+        <v>2.080497037301718</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.887029413276688</v>
@@ -54017,7 +53789,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>2.008413681121518</v>
+        <v>2.084717853805903</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.323901424755633</v>
@@ -54106,7 +53878,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>2.002132091428386</v>
+        <v>2.082164816462032</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.950645402586903</v>
@@ -54195,7 +53967,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>2.019033229291574</v>
+        <v>2.092644926718292</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.496641670504985</v>
@@ -54284,7 +54056,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>2.024735112751729</v>
+        <v>2.100810765566098</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.531514703549893</v>
